--- a/3.3 BOM/mech_bom.xlsx
+++ b/3.3 BOM/mech_bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\HSRW\Semester 5\Group Project\Group-Project_WS2526\3.3 BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{21812925-9E11-4FAA-8F7C-7F55D834C5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{CB9E15A8-A896-4BEC-A8D1-39FCE99FC8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A395E204-22DF-443E-8F79-70B9AE8E1FF5}"/>
   </bookViews>
@@ -1777,7 +1777,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1833,7 +1833,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{05FC2072-7DC4-4057-BAA1-ED9BB5DE68A5}" diskRevisions="1" revisionId="787" version="8">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0B71342C-CB44-4B20-B0C2-9CD9BBD46132}" diskRevisions="1" revisionId="787" version="9">
   <header guid="{59B8C1A0-3922-48B5-B29A-A6E7F0D7E921}" dateTime="2025-12-14T14:04:08" maxSheetId="2" userName="Justin" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -1894,11 +1894,25 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{0B71342C-CB44-4B20-B0C2-9CD9BBD46132}" dateTime="2025-12-14T15:52:41" maxSheetId="4" userName="Justin" r:id="rId10">
+    <sheetIdMap count="3">
+      <sheetId val="3"/>
+      <sheetId val="2"/>
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{85B28F95-3488-41DC-90A4-160F98D9658E}" action="delete"/>
+  <rcv guid="{85B28F95-3488-41DC-90A4-160F98D9658E}" action="add"/>
+</revisions>
 </file>
 
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24092,7 +24106,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
@@ -24415,7 +24429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4420186A-89FE-4CA6-AA68-692FD3F9CD8C}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -25300,7 +25314,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{85B28F95-3488-41DC-90A4-160F98D9658E}">
+    <customSheetView guid="{85B28F95-3488-41DC-90A4-160F98D9658E}" topLeftCell="A10">
+      <selection activeCell="C14" sqref="C14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -25314,8 +25329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44EC70D-088D-47BD-A91C-99C4675A6A1B}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection sqref="A1:G45"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26433,7 +26448,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{85B28F95-3488-41DC-90A4-160F98D9658E}" topLeftCell="A35">
+    <customSheetView guid="{85B28F95-3488-41DC-90A4-160F98D9658E}" topLeftCell="A29">
       <selection activeCell="D45" sqref="D45"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -26447,13 +26462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E46A839-2ABC-44B5-82B8-E3AD498E0F6A}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-      <extLst>
-        <ext xmlns:xlsdti="http://schemas.microsoft.com/office/spreadsheetml/2023/showDataTypeIcons" uri="{77bfe23e-c014-4d31-8a63-9c772dbf06b6}">
-          <xlsdti:showDataTypeIcons visible="0"/>
-        </ext>
-      </extLst>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/3.3 BOM/mech_bom.xlsx
+++ b/3.3 BOM/mech_bom.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\HSRW\Semester 5\Group Project\Group-Project_WS2526\3.3 BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmad\Desktop\HSRW\Semester 5\Group Project\Group-Project_WS2526\3.3 BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{CB9E15A8-A896-4BEC-A8D1-39FCE99FC8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{EAEDCF38-4EBC-4671-9844-7D9C559B43A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A395E204-22DF-443E-8F79-70B9AE8E1FF5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A395E204-22DF-443E-8F79-70B9AE8E1FF5}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_word" sheetId="3" r:id="rId1"/>
@@ -23,6 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Ahmad - Personal View" guid="{5F732A23-763A-43CE-844F-98E769D3D5C8}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1038" activeSheetId="3"/>
     <customWorkbookView name="Justin - Personal View" guid="{85B28F95-3488-41DC-90A4-160F98D9658E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="189">
   <si>
     <t>ITEM NO.</t>
   </si>
@@ -1255,12 +1256,6 @@
     <t>Verified (from SW)</t>
   </si>
   <si>
-    <t>M4 x 0.7 x 10 Rivet Nuts</t>
-  </si>
-  <si>
-    <t>M2 x 16 Slotted Pan Head Screw</t>
-  </si>
-  <si>
     <t>ISO 1580</t>
   </si>
   <si>
@@ -1279,22 +1274,40 @@
     <t>FR-4 and Copper</t>
   </si>
   <si>
-    <t>M4 x 0.7 x 12  Butten Head Screws</t>
-  </si>
-  <si>
-    <t>M3 x 0.5 x 10 Butten Head Screws</t>
-  </si>
-  <si>
-    <t>M3 x 0.5 x 8 Butten Head Screws</t>
-  </si>
-  <si>
-    <t>M3 x 0.5 x 6 Butten Head Screws</t>
-  </si>
-  <si>
     <t xml:space="preserve">M12 Load Cell Cable </t>
   </si>
   <si>
     <t>Push Buttons</t>
+  </si>
+  <si>
+    <t>M3 x 0.5 x 6 Button Head Screws</t>
+  </si>
+  <si>
+    <t>M4 x 0.7 x 12  Button Head Screws</t>
+  </si>
+  <si>
+    <t>M3 x 0.5 x 10 Button Head Screws</t>
+  </si>
+  <si>
+    <t>M3 x 0.5 x 8 Button Head Screws</t>
+  </si>
+  <si>
+    <t>M2 x 0.4 x 16 Slotted Pan Head Screw</t>
+  </si>
+  <si>
+    <t>M4 x 0.7 x 9.2 Rivet Nuts</t>
+  </si>
+  <si>
+    <t>Polypropylene</t>
+  </si>
+  <si>
+    <t>Silicone Rubber</t>
+  </si>
+  <si>
+    <t>Built into bought product</t>
+  </si>
+  <si>
+    <t>Velcro</t>
   </si>
 </sst>
 </file>
@@ -1833,7 +1846,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0B71342C-CB44-4B20-B0C2-9CD9BBD46132}" diskRevisions="1" revisionId="787" version="9">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C0FB79EA-1910-40D5-9EC7-18AB8E2B6B59}" diskRevisions="1" revisionId="828" version="12">
   <header guid="{59B8C1A0-3922-48B5-B29A-A6E7F0D7E921}" dateTime="2025-12-14T14:04:08" maxSheetId="2" userName="Justin" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -1901,6 +1914,27 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{E2864D10-B042-4741-AB70-E470E31416A6}" dateTime="2025-12-14T17:37:42" maxSheetId="4" userName="Ahmad" r:id="rId11" minRId="788" maxRId="822">
+    <sheetIdMap count="3">
+      <sheetId val="3"/>
+      <sheetId val="2"/>
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C859FBE9-E02E-4707-9FBB-26A4069BE959}" dateTime="2025-12-14T17:38:01" maxSheetId="4" userName="Ahmad" r:id="rId12" minRId="823" maxRId="827">
+    <sheetIdMap count="3">
+      <sheetId val="3"/>
+      <sheetId val="2"/>
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C0FB79EA-1910-40D5-9EC7-18AB8E2B6B59}" dateTime="2025-12-14T17:39:27" maxSheetId="4" userName="Ahmad" r:id="rId13" minRId="828">
+    <sheetIdMap count="3">
+      <sheetId val="3"/>
+      <sheetId val="2"/>
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -1912,6 +1946,388 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcv guid="{85B28F95-3488-41DC-90A4-160F98D9658E}" action="delete"/>
   <rcv guid="{85B28F95-3488-41DC-90A4-160F98D9658E}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="788" sId="3">
+    <oc r="H3" t="b">
+      <v>0</v>
+    </oc>
+    <nc r="H3" t="b">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="789" sId="3">
+    <oc r="H4" t="b">
+      <v>0</v>
+    </oc>
+    <nc r="H4" t="b">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="790" sId="3">
+    <oc r="H5" t="b">
+      <v>0</v>
+    </oc>
+    <nc r="H5" t="b">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="791" sId="3">
+    <oc r="H6" t="b">
+      <v>0</v>
+    </oc>
+    <nc r="H6" t="b">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="792" sId="3">
+    <oc r="H7" t="b">
+      <v>0</v>
+    </oc>
+    <nc r="H7" t="b">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="793" sId="3">
+    <oc r="H8" t="b">
+      <v>0</v>
+    </oc>
+    <nc r="H8" t="b">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="794" sId="3">
+    <oc r="H9" t="b">
+      <v>0</v>
+    </oc>
+    <nc r="H9" t="b">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="795" sId="3">
+    <oc r="H10" t="b">
+      <v>0</v>
+    </oc>
+    <nc r="H10" t="b">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="796" sId="3">
+    <oc r="H11" t="b">
+      <v>0</v>
+    </oc>
+    <nc r="H11" t="b">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="797" sId="3">
+    <oc r="H12" t="b">
+      <v>0</v>
+    </oc>
+    <nc r="H12" t="b">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="798" sId="3">
+    <oc r="H13" t="b">
+      <v>0</v>
+    </oc>
+    <nc r="H13" t="b">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="799" sId="3">
+    <oc r="H14" t="b">
+      <v>0</v>
+    </oc>
+    <nc r="H14" t="b">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="800" sId="3">
+    <oc r="H15" t="b">
+      <v>0</v>
+    </oc>
+    <nc r="H15" t="b">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="801" sId="3">
+    <oc r="H16" t="b">
+      <v>0</v>
+    </oc>
+    <nc r="H16" t="b">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="802" sId="3">
+    <oc r="H17" t="b">
+      <v>0</v>
+    </oc>
+    <nc r="H17" t="b">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="803" sId="3">
+    <oc r="B16" t="inlineStr">
+      <is>
+        <t>M3 x 0.5 x 6 Butten Head Screws</t>
+      </is>
+    </oc>
+    <nc r="B16" t="inlineStr">
+      <is>
+        <t>M3 x 0.5 x 6 Button Head Screws</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="804" sId="3">
+    <oc r="B13" t="inlineStr">
+      <is>
+        <t>M4 x 0.7 x 12  Butten Head Screws</t>
+      </is>
+    </oc>
+    <nc r="B13" t="inlineStr">
+      <is>
+        <t>M4 x 0.7 x 12  Button Head Screws</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="805" sId="3">
+    <oc r="B14" t="inlineStr">
+      <is>
+        <t>M3 x 0.5 x 10 Butten Head Screws</t>
+      </is>
+    </oc>
+    <nc r="B14" t="inlineStr">
+      <is>
+        <t>M3 x 0.5 x 10 Button Head Screws</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="806" sId="3">
+    <oc r="B15" t="inlineStr">
+      <is>
+        <t>M3 x 0.5 x 8 Butten Head Screws</t>
+      </is>
+    </oc>
+    <nc r="B15" t="inlineStr">
+      <is>
+        <t>M3 x 0.5 x 8 Button Head Screws</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="807" sId="3">
+    <oc r="B17" t="inlineStr">
+      <is>
+        <t>M2 x 16 Slotted Pan Head Screw</t>
+      </is>
+    </oc>
+    <nc r="B17" t="inlineStr">
+      <is>
+        <t>M2 x 0.4 x 16 Slotted Pan Head Screw</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="808" sId="3">
+    <oc r="H18" t="b">
+      <v>0</v>
+    </oc>
+    <nc r="H18" t="b">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="809" sId="3">
+    <oc r="H19" t="b">
+      <v>0</v>
+    </oc>
+    <nc r="H19" t="b">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="810" sId="3">
+    <oc r="H20" t="b">
+      <v>0</v>
+    </oc>
+    <nc r="H20" t="b">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="811" sId="3">
+    <oc r="H21" t="b">
+      <v>0</v>
+    </oc>
+    <nc r="H21" t="b">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="812" sId="3">
+    <oc r="H23" t="b">
+      <v>0</v>
+    </oc>
+    <nc r="H23" t="b">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="813" sId="3">
+    <oc r="H22" t="b">
+      <v>0</v>
+    </oc>
+    <nc r="H22" t="b">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="814" sId="3">
+    <oc r="H24" t="b">
+      <v>0</v>
+    </oc>
+    <nc r="H24" t="b">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="815" sId="3">
+    <oc r="B19" t="inlineStr">
+      <is>
+        <t>M4 x 0.7 x 10 Rivet Nuts</t>
+      </is>
+    </oc>
+    <nc r="B19" t="inlineStr">
+      <is>
+        <t>M4 x 0.7 x 9.2 Rivet Nuts</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="816" sId="3">
+    <nc r="C12" t="inlineStr">
+      <is>
+        <t>Polypropylene</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="817" sId="3">
+    <nc r="C24" t="inlineStr">
+      <is>
+        <t>Silicone Rubber</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="818" sId="3" xfDxf="1" dxf="1">
+    <nc r="C25" t="inlineStr">
+      <is>
+        <t>PVC Foam Tape</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <border outline="0">
+        <right style="medium">
+          <color rgb="FFBFBFBF"/>
+        </right>
+        <bottom style="medium">
+          <color rgb="FFBFBFBF"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="819" sId="3">
+    <nc r="C26" t="inlineStr">
+      <is>
+        <t>PVC Foam Tape</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="820" sId="3">
+    <nc r="C27" t="inlineStr">
+      <is>
+        <t>Built into bought product</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="821" sId="3">
+    <nc r="C29" t="inlineStr">
+      <is>
+        <t>Velcro</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="822" sId="3">
+    <nc r="C28" t="inlineStr">
+      <is>
+        <t>also built in</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{5F732A23-763A-43CE-844F-98E769D3D5C8}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="823" sId="3">
+    <oc r="H25" t="b">
+      <v>0</v>
+    </oc>
+    <nc r="H25" t="b">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="824" sId="3">
+    <oc r="H26" t="b">
+      <v>0</v>
+    </oc>
+    <nc r="H26" t="b">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="825" sId="3">
+    <oc r="H27" t="b">
+      <v>0</v>
+    </oc>
+    <nc r="H27" t="b">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="826" sId="3">
+    <oc r="H28" t="b">
+      <v>0</v>
+    </oc>
+    <nc r="H28" t="b">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="827" sId="3">
+    <oc r="H29" t="b">
+      <v>0</v>
+    </oc>
+    <nc r="H29" t="b">
+      <v>1</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="828" sId="3">
+    <oc r="C28" t="inlineStr">
+      <is>
+        <t>also built in</t>
+      </is>
+    </oc>
+    <nc r="C28" t="inlineStr">
+      <is>
+        <t>PVC Foam Tape</t>
+      </is>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -24429,8 +24845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4420186A-89FE-4CA6-AA68-692FD3F9CD8C}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24461,7 +24877,7 @@
         <v>170</v>
       </c>
       <c r="H1" s="55" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -24507,7 +24923,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -24530,7 +24946,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="63" thickBot="1" x14ac:dyDescent="0.35">
@@ -24553,7 +24969,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="63" thickBot="1" x14ac:dyDescent="0.35">
@@ -24576,7 +24992,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -24599,7 +25015,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -24622,7 +25038,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -24645,7 +25061,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -24668,7 +25084,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -24691,7 +25107,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -24701,7 +25117,9 @@
       <c r="B12" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="24"/>
+      <c r="C12" s="24" t="s">
+        <v>185</v>
+      </c>
       <c r="D12" s="24">
         <v>1</v>
       </c>
@@ -24712,7 +25130,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -24720,7 +25138,7 @@
         <v>27</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C13" s="61"/>
       <c r="D13" s="57">
@@ -24733,7 +25151,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -24741,7 +25159,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C14" s="56"/>
       <c r="D14" s="56">
@@ -24754,7 +25172,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -24762,7 +25180,7 @@
         <v>29</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C15" s="61"/>
       <c r="D15" s="57">
@@ -24775,7 +25193,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
@@ -24783,7 +25201,7 @@
         <v>30</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C16" s="59"/>
       <c r="D16" s="59">
@@ -24796,28 +25214,28 @@
         <v>1</v>
       </c>
       <c r="H16" s="42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="21">
         <v>31</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22">
         <v>4</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G17" s="42" t="b">
         <v>1</v>
       </c>
       <c r="H17" s="42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -24838,7 +25256,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -24846,7 +25264,7 @@
         <v>33</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C19" s="22"/>
       <c r="D19" s="22">
@@ -24857,7 +25275,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -24878,7 +25296,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -24899,7 +25317,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -24920,7 +25338,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -24941,7 +25359,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -24951,7 +25369,9 @@
       <c r="B24" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="22"/>
+      <c r="C24" s="22" t="s">
+        <v>186</v>
+      </c>
       <c r="D24" s="22">
         <v>1</v>
       </c>
@@ -24960,7 +25380,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -24970,7 +25390,9 @@
       <c r="B25" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="C25" s="22"/>
+      <c r="C25" s="22" t="s">
+        <v>137</v>
+      </c>
       <c r="D25" s="22">
         <v>1</v>
       </c>
@@ -24979,7 +25401,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -24989,7 +25411,9 @@
       <c r="B26" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="29"/>
+      <c r="C26" s="29" t="s">
+        <v>137</v>
+      </c>
       <c r="D26" s="29">
         <v>1</v>
       </c>
@@ -24998,17 +25422,19 @@
         <v>1</v>
       </c>
       <c r="H26" s="42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="30">
         <v>41</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C27" s="22"/>
+        <v>172</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>187</v>
+      </c>
       <c r="D27" s="22">
         <v>1</v>
       </c>
@@ -25017,7 +25443,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -25025,9 +25451,11 @@
         <v>42</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="C28" s="22"/>
+        <v>173</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>137</v>
+      </c>
       <c r="D28" s="22">
         <v>1</v>
       </c>
@@ -25036,7 +25464,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -25046,7 +25474,9 @@
       <c r="B29" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="24"/>
+      <c r="C29" s="24" t="s">
+        <v>188</v>
+      </c>
       <c r="D29" s="20">
         <v>1</v>
       </c>
@@ -25055,7 +25485,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -25121,7 +25551,7 @@
         <v>13</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C39" s="36" t="s">
         <v>142</v>
@@ -25149,7 +25579,7 @@
         <v>15</v>
       </c>
       <c r="B41" s="48" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C41" s="48" t="s">
         <v>159</v>
@@ -25314,14 +25744,19 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{5F732A23-763A-43CE-844F-98E769D3D5C8}" topLeftCell="A19">
+      <selection activeCell="C29" sqref="C29"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
     <customSheetView guid="{85B28F95-3488-41DC-90A4-160F98D9658E}" topLeftCell="A10">
       <selection activeCell="C14" sqref="C14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -25329,8 +25764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44EC70D-088D-47BD-A91C-99C4675A6A1B}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25357,10 +25792,10 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="F1" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -25382,7 +25817,7 @@
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G2" s="16" t="str">
         <f>BOM_word!C2</f>
@@ -25408,7 +25843,7 @@
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G3" s="16" t="str">
         <f>BOM_word!C3</f>
@@ -25434,7 +25869,7 @@
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G4" s="16" t="str">
         <f>BOM_word!C4</f>
@@ -25460,7 +25895,7 @@
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G5" s="16" t="str">
         <f>BOM_word!C5</f>
@@ -25486,7 +25921,7 @@
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G6" s="16" t="str">
         <f>BOM_word!C6</f>
@@ -25512,7 +25947,7 @@
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G7" s="16" t="str">
         <f>BOM_word!C7</f>
@@ -25538,7 +25973,7 @@
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G8" s="16" t="str">
         <f>BOM_word!C8</f>
@@ -25564,7 +25999,7 @@
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G9" s="16" t="str">
         <f>BOM_word!C9</f>
@@ -25590,7 +26025,7 @@
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G10" s="16" t="str">
         <f>BOM_word!C10</f>
@@ -25616,7 +26051,7 @@
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G11" s="16" t="str">
         <f>BOM_word!C11</f>
@@ -25642,11 +26077,11 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="G12" s="16">
+        <v>175</v>
+      </c>
+      <c r="G12" s="16" t="str">
         <f>BOM_word!C12</f>
-        <v>0</v>
+        <v>Polypropylene</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -25665,7 +26100,7 @@
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G13" s="16"/>
     </row>
@@ -25685,7 +26120,7 @@
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G14" s="16"/>
     </row>
@@ -25705,7 +26140,7 @@
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G15" s="16"/>
     </row>
@@ -25725,7 +26160,7 @@
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G16" s="16"/>
     </row>
@@ -25745,7 +26180,7 @@
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G17" s="16"/>
     </row>
@@ -25765,7 +26200,7 @@
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G18" s="16"/>
     </row>
@@ -25785,7 +26220,7 @@
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G19" s="16"/>
     </row>
@@ -25805,7 +26240,7 @@
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G20" s="16"/>
     </row>
@@ -25825,7 +26260,7 @@
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G21" s="16"/>
     </row>
@@ -25845,7 +26280,7 @@
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G22" s="16"/>
     </row>
@@ -25865,7 +26300,7 @@
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G23" s="16"/>
     </row>
@@ -25885,7 +26320,7 @@
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G24" s="16"/>
     </row>
@@ -25905,7 +26340,7 @@
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G25" s="16"/>
     </row>
@@ -25925,7 +26360,7 @@
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G26" s="16"/>
     </row>
@@ -25940,7 +26375,7 @@
       </c>
       <c r="C27" s="15" t="str">
         <f>BOM_word!B13</f>
-        <v>M4 x 0.7 x 12  Butten Head Screws</v>
+        <v>M4 x 0.7 x 12  Button Head Screws</v>
       </c>
       <c r="D27" s="15" t="str">
         <f>BOM_word!E13</f>
@@ -25948,7 +26383,7 @@
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G27" s="16">
         <f>BOM_word!C13</f>
@@ -25966,7 +26401,7 @@
       </c>
       <c r="C28" s="15" t="str">
         <f>BOM_word!B14</f>
-        <v>M3 x 0.5 x 10 Butten Head Screws</v>
+        <v>M3 x 0.5 x 10 Button Head Screws</v>
       </c>
       <c r="D28" s="15" t="str">
         <f>BOM_word!E14</f>
@@ -25974,7 +26409,7 @@
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G28" s="16">
         <f>BOM_word!C14</f>
@@ -25992,7 +26427,7 @@
       </c>
       <c r="C29" s="15" t="str">
         <f>BOM_word!B15</f>
-        <v>M3 x 0.5 x 8 Butten Head Screws</v>
+        <v>M3 x 0.5 x 8 Button Head Screws</v>
       </c>
       <c r="D29" s="15" t="str">
         <f>BOM_word!E15</f>
@@ -26000,7 +26435,7 @@
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G29" s="16">
         <f>BOM_word!C15</f>
@@ -26018,7 +26453,7 @@
       </c>
       <c r="C30" s="15" t="str">
         <f>BOM_word!B16</f>
-        <v>M3 x 0.5 x 6 Butten Head Screws</v>
+        <v>M3 x 0.5 x 6 Button Head Screws</v>
       </c>
       <c r="D30" s="15" t="str">
         <f>BOM_word!E16</f>
@@ -26026,7 +26461,7 @@
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G30" s="16">
         <f>BOM_word!C16</f>
@@ -26044,7 +26479,7 @@
       </c>
       <c r="C31" s="15" t="str">
         <f>BOM_word!B17</f>
-        <v>M2 x 16 Slotted Pan Head Screw</v>
+        <v>M2 x 0.4 x 16 Slotted Pan Head Screw</v>
       </c>
       <c r="D31" s="15" t="str">
         <f>BOM_word!E17</f>
@@ -26052,7 +26487,7 @@
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G31" s="16">
         <f>BOM_word!C17</f>
@@ -26078,7 +26513,7 @@
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G32" s="16">
         <f>BOM_word!C18</f>
@@ -26096,7 +26531,7 @@
       </c>
       <c r="C33" s="15" t="str">
         <f>BOM_word!B19</f>
-        <v>M4 x 0.7 x 10 Rivet Nuts</v>
+        <v>M4 x 0.7 x 9.2 Rivet Nuts</v>
       </c>
       <c r="D33" s="15">
         <f>BOM_word!E19</f>
@@ -26104,7 +26539,7 @@
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G33" s="16">
         <f>BOM_word!C19</f>
@@ -26130,7 +26565,7 @@
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G34" s="16">
         <f>BOM_word!C20</f>
@@ -26156,7 +26591,7 @@
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G35" s="16">
         <f>BOM_word!C21</f>
@@ -26182,7 +26617,7 @@
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G36" s="16">
         <f>BOM_word!C22</f>
@@ -26208,7 +26643,7 @@
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G37" s="16">
         <f>BOM_word!C23</f>
@@ -26234,11 +26669,11 @@
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="G38" s="16">
+        <v>175</v>
+      </c>
+      <c r="G38" s="16" t="str">
         <f>BOM_word!C24</f>
-        <v>0</v>
+        <v>Silicone Rubber</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -26260,11 +26695,11 @@
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="G39" s="16">
+        <v>175</v>
+      </c>
+      <c r="G39" s="16" t="str">
         <f>BOM_word!C25</f>
-        <v>0</v>
+        <v>PVC Foam Tape</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -26286,11 +26721,11 @@
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="G40" s="16">
+        <v>175</v>
+      </c>
+      <c r="G40" s="16" t="str">
         <f>BOM_word!C26</f>
-        <v>0</v>
+        <v>PVC Foam Tape</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -26312,11 +26747,11 @@
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="G41" s="16">
+        <v>175</v>
+      </c>
+      <c r="G41" s="16" t="str">
         <f>BOM_word!C27</f>
-        <v>0</v>
+        <v>Built into bought product</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -26338,11 +26773,11 @@
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="G42" s="16">
+        <v>175</v>
+      </c>
+      <c r="G42" s="16" t="str">
         <f>BOM_word!C28</f>
-        <v>0</v>
+        <v>PVC Foam Tape</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -26364,11 +26799,11 @@
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="G43" s="16">
+        <v>175</v>
+      </c>
+      <c r="G43" s="16" t="str">
         <f>BOM_word!C29</f>
-        <v>0</v>
+        <v>Velcro</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -26390,7 +26825,7 @@
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G44" s="16">
         <f>BOM_word!C30</f>
@@ -26416,7 +26851,7 @@
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G45" s="16">
         <f>BOM_word!C31</f>
@@ -26448,6 +26883,10 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{5F732A23-763A-43CE-844F-98E769D3D5C8}">
+      <selection activeCell="D15" sqref="D15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{85B28F95-3488-41DC-90A4-160F98D9658E}" topLeftCell="A29">
       <selection activeCell="D45" sqref="D45"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27197,6 +27636,10 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{5F732A23-763A-43CE-844F-98E769D3D5C8}" topLeftCell="A34">
+      <selection activeCell="E47" sqref="E47"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{85B28F95-3488-41DC-90A4-160F98D9658E}" topLeftCell="A34">
       <selection activeCell="E47" sqref="E47"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3.3 BOM/mech_bom.xlsx
+++ b/3.3 BOM/mech_bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\HSRW\Semester 5\Group Project\Group-Project_WS2526\3.3 BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{6DBF1F01-75ED-449A-96F9-A3DF94CEE4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{21DABAC0-811C-41C2-A55E-BFD23F322271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{A395E204-22DF-443E-8F79-70B9AE8E1FF5}"/>
   </bookViews>
@@ -19,12 +19,12 @@
     <sheet name="BOM_elec" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_ftn1" localSheetId="0">BOM_word!$A$34</definedName>
+    <definedName name="_ftn1" localSheetId="0">BOM_word!$A$32</definedName>
     <definedName name="_ftnref1" localSheetId="0">BOM_word!$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="Justin - Personal View" guid="{85B28F95-3488-41DC-90A4-160F98D9658E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="4"/>
+    <customWorkbookView name="Justin - Personal View" guid="{85B28F95-3488-41DC-90A4-160F98D9658E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="3"/>
     <customWorkbookView name="Ahmad - Personal View" guid="{5F732A23-763A-43CE-844F-98E769D3D5C8}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1038" activeSheetId="3"/>
   </customWorkbookViews>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="363">
   <si>
     <t>ITEM NO.</t>
   </si>
@@ -1087,9 +1087,6 @@
     <t>Medium Density EVA Foam</t>
   </si>
   <si>
-    <t>Make</t>
-  </si>
-  <si>
     <t>Aluminium Box Foam</t>
   </si>
   <si>
@@ -1106,9 +1103,6 @@
   </si>
   <si>
     <t>Top Foam</t>
-  </si>
-  <si>
-    <t>Modify</t>
   </si>
   <si>
     <t>ISO 7380</t>
@@ -1145,9 +1139,6 @@
   </si>
   <si>
     <t>PVC Foam Tape</t>
-  </si>
-  <si>
-    <t>3M Scotch-Weld Epoxy DP420</t>
   </si>
   <si>
     <r>
@@ -2122,6 +2113,27 @@
   <si>
     <t>Quantity</t>
   </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ISO 7214 1998</t>
+  </si>
+  <si>
+    <t>stainless steel A2</t>
+  </si>
+  <si>
+    <t>DIN 7337</t>
+  </si>
+  <si>
+    <t>ISO 3601</t>
+  </si>
+  <si>
+    <t>ISO 29864</t>
+  </si>
+  <si>
+    <t>33946-2015.02</t>
+  </si>
 </sst>
 </file>
 
@@ -2245,27 +2257,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2476,7 +2473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2488,101 +2485,100 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2592,124 +2588,124 @@
         </ext>
       </extLst>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2747,7 +2743,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{79A574D8-2080-45FC-9106-F5ABB1BDFD39}" diskRevisions="1" revisionId="1164" version="14">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{F7E3293A-FDBC-4E58-B259-B8145326F9FA}" diskRevisions="1" revisionId="1264" version="18">
   <header guid="{59B8C1A0-3922-48B5-B29A-A6E7F0D7E921}" dateTime="2025-12-14T14:04:08" maxSheetId="2" userName="Justin" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -2852,6 +2848,38 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
+  <header guid="{5263E4A0-5688-4494-B010-9A4CD4E25EA8}" dateTime="2026-01-11T17:40:48" maxSheetId="5" userName="Justin" r:id="rId16" minRId="1165" maxRId="1218">
+    <sheetIdMap count="4">
+      <sheetId val="3"/>
+      <sheetId val="2"/>
+      <sheetId val="1"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2BCE2CAE-C09C-4951-9499-BD6269717E65}" dateTime="2026-01-11T17:59:50" maxSheetId="5" userName="Justin" r:id="rId17" minRId="1219" maxRId="1261">
+    <sheetIdMap count="4">
+      <sheetId val="3"/>
+      <sheetId val="2"/>
+      <sheetId val="1"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F4F1168D-16C8-4B9A-A71B-E69178B375F9}" dateTime="2026-01-11T19:53:02" maxSheetId="5" userName="Justin" r:id="rId18" minRId="1262" maxRId="1263">
+    <sheetIdMap count="4">
+      <sheetId val="3"/>
+      <sheetId val="2"/>
+      <sheetId val="1"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F7E3293A-FDBC-4E58-B259-B8145326F9FA}" dateTime="2026-01-11T19:57:48" maxSheetId="5" userName="Justin" r:id="rId19" minRId="1264">
+    <sheetIdMap count="4">
+      <sheetId val="3"/>
+      <sheetId val="2"/>
+      <sheetId val="1"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -16820,6 +16848,2103 @@
   </rcc>
   <rcv guid="{85B28F95-3488-41DC-90A4-160F98D9658E}" action="delete"/>
   <rcv guid="{85B28F95-3488-41DC-90A4-160F98D9658E}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1165" sId="3" xfDxf="1" dxf="1">
+    <oc r="E5" t="inlineStr">
+      <is>
+        <t>Make</t>
+      </is>
+    </oc>
+    <nc r="E5" t="inlineStr">
+      <is>
+        <t>ISO 7214 1998</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <border outline="0">
+        <right style="medium">
+          <color rgb="FFBFBFBF"/>
+        </right>
+        <bottom style="medium">
+          <color rgb="FFBFBFBF"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="1166" sId="3" xfDxf="1" dxf="1">
+    <oc r="E6" t="inlineStr">
+      <is>
+        <t>Make</t>
+      </is>
+    </oc>
+    <nc r="E6" t="inlineStr">
+      <is>
+        <t>ISO 7214 1998</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <border outline="0">
+        <right style="medium">
+          <color rgb="FFBFBFBF"/>
+        </right>
+        <bottom style="medium">
+          <color rgb="FFBFBFBF"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="1167" sId="3" xfDxf="1" dxf="1">
+    <oc r="E11" t="inlineStr">
+      <is>
+        <t>Make</t>
+      </is>
+    </oc>
+    <nc r="E11" t="inlineStr">
+      <is>
+        <t>ISO 7214 1998</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <border outline="0">
+        <right style="medium">
+          <color rgb="FFBFBFBF"/>
+        </right>
+        <bottom style="medium">
+          <color rgb="FFBFBFBF"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="1168" sId="3">
+    <oc r="E12" t="inlineStr">
+      <is>
+        <t>Modify</t>
+      </is>
+    </oc>
+    <nc r="E12" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="1169" sId="3" ref="A30:XFD30" action="deleteRow">
+    <undo index="65535" exp="ref" ref3D="1" v="1" dr="E30" r="D44" sId="2"/>
+    <undo index="65535" exp="ref" ref3D="1" v="1" dr="B30" r="C44" sId="2"/>
+    <undo index="65535" exp="ref" ref3D="1" v="1" dr="D30" r="B44" sId="2"/>
+    <undo index="65535" exp="ref" ref3D="1" v="1" dr="A30" r="A44" sId="2"/>
+    <undo index="65535" exp="ref" ref3D="1" v="1" dr="C30" r="G44" sId="2"/>
+    <rfmt sheetId="3" xfDxf="1" sqref="A30:XFD30" start="0" length="0"/>
+    <rcc rId="0" sId="3" dxf="1">
+      <nc r="A30">
+        <v>44</v>
+      </nc>
+      <ndxf>
+        <font>
+          <b/>
+          <sz val="12"/>
+          <color theme="1"/>
+          <name val="Times New Roman"/>
+          <family val="1"/>
+          <scheme val="none"/>
+        </font>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor rgb="FFF2F2F2"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="justify" vertical="center" wrapText="1"/>
+        <border outline="0">
+          <left style="medium">
+            <color rgb="FFBFBFBF"/>
+          </left>
+          <right style="medium">
+            <color rgb="FFBFBFBF"/>
+          </right>
+          <bottom style="medium">
+            <color rgb="FFBFBFBF"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="3" dxf="1">
+      <nc r="B30" t="inlineStr">
+        <is>
+          <t>PVC Foam Tape</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="12"/>
+          <color theme="1"/>
+          <name val="Times New Roman"/>
+          <family val="1"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="left" vertical="center" wrapText="1"/>
+        <border outline="0">
+          <right style="medium">
+            <color rgb="FFBFBFBF"/>
+          </right>
+          <bottom style="medium">
+            <color rgb="FFBFBFBF"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+    <rfmt sheetId="3" sqref="C30" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color theme="1"/>
+          <name val="Times New Roman"/>
+          <family val="1"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="justify" vertical="center" wrapText="1"/>
+        <border outline="0">
+          <right style="medium">
+            <color rgb="FFBFBFBF"/>
+          </right>
+          <bottom style="medium">
+            <color rgb="FFBFBFBF"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="3" dxf="1">
+      <nc r="D30">
+        <v>1</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="12"/>
+          <color theme="1"/>
+          <name val="Times New Roman"/>
+          <family val="1"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="justify" vertical="center" wrapText="1"/>
+        <border outline="0">
+          <right style="medium">
+            <color rgb="FFBFBFBF"/>
+          </right>
+          <bottom style="medium">
+            <color rgb="FFBFBFBF"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+    <rfmt sheetId="3" sqref="E30" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color theme="1"/>
+          <name val="Times New Roman"/>
+          <family val="1"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="justify" vertical="center" wrapText="1"/>
+        <border outline="0">
+          <right style="medium">
+            <color rgb="FFBFBFBF"/>
+          </right>
+          <bottom style="medium">
+            <color rgb="FFBFBFBF"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="3">
+      <nc r="G30" t="b">
+        <v>0</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="3">
+      <nc r="H30" t="b">
+        <v>0</v>
+      </nc>
+    </rcc>
+  </rrc>
+  <rrc rId="1170" sId="3" ref="A30:XFD30" action="deleteRow">
+    <undo index="65535" exp="ref" ref3D="1" v="1" dr="E30" r="D45" sId="2"/>
+    <undo index="65535" exp="ref" ref3D="1" v="1" dr="B30" r="C45" sId="2"/>
+    <undo index="65535" exp="ref" ref3D="1" v="1" dr="D30" r="B45" sId="2"/>
+    <undo index="65535" exp="ref" ref3D="1" v="1" dr="A30" r="A45" sId="2"/>
+    <undo index="65535" exp="ref" ref3D="1" v="1" dr="C30" r="G45" sId="2"/>
+    <rfmt sheetId="3" xfDxf="1" sqref="A30:XFD30" start="0" length="0"/>
+    <rcc rId="0" sId="3" dxf="1">
+      <nc r="A30">
+        <v>45</v>
+      </nc>
+      <ndxf>
+        <font>
+          <b/>
+          <sz val="12"/>
+          <color theme="1"/>
+          <name val="Times New Roman"/>
+          <family val="1"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="justify" vertical="center" wrapText="1"/>
+        <border outline="0">
+          <left style="medium">
+            <color rgb="FFBFBFBF"/>
+          </left>
+          <right style="medium">
+            <color rgb="FFBFBFBF"/>
+          </right>
+          <bottom style="medium">
+            <color rgb="FFBFBFBF"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="3" dxf="1">
+      <nc r="B30" t="inlineStr">
+        <is>
+          <t>3M Scotch-Weld Epoxy DP420</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="12"/>
+          <color rgb="FF000000"/>
+          <name val="Times New Roman"/>
+          <family val="1"/>
+          <scheme val="none"/>
+        </font>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor rgb="FFF2F2F2"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="left" vertical="center" wrapText="1"/>
+        <border outline="0">
+          <right style="medium">
+            <color rgb="FFBFBFBF"/>
+          </right>
+          <bottom style="medium">
+            <color rgb="FFBFBFBF"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+    <rfmt sheetId="3" sqref="C30" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color theme="1"/>
+          <name val="Times New Roman"/>
+          <family val="1"/>
+          <scheme val="none"/>
+        </font>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor rgb="FFF2F2F2"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="justify" vertical="center" wrapText="1"/>
+        <border outline="0">
+          <right style="medium">
+            <color rgb="FFBFBFBF"/>
+          </right>
+          <bottom style="medium">
+            <color rgb="FFBFBFBF"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="3" dxf="1">
+      <nc r="D30">
+        <v>1</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="12"/>
+          <color rgb="FF000000"/>
+          <name val="Times New Roman"/>
+          <family val="1"/>
+          <scheme val="none"/>
+        </font>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor rgb="FFF2F2F2"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="justify" vertical="center" wrapText="1"/>
+        <border outline="0">
+          <right style="medium">
+            <color rgb="FFBFBFBF"/>
+          </right>
+          <bottom style="medium">
+            <color rgb="FFBFBFBF"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+    <rfmt sheetId="3" sqref="E30" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="12"/>
+          <color theme="1"/>
+          <name val="Times New Roman"/>
+          <family val="1"/>
+          <scheme val="none"/>
+        </font>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor rgb="FFF2F2F2"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="justify" vertical="center" wrapText="1"/>
+        <border outline="0">
+          <right style="medium">
+            <color rgb="FFBFBFBF"/>
+          </right>
+          <bottom style="medium">
+            <color rgb="FFBFBFBF"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="3">
+      <nc r="G30" t="b">
+        <v>0</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="3">
+      <nc r="H30" t="b">
+        <v>0</v>
+      </nc>
+    </rcc>
+  </rrc>
+  <rfmt sheetId="3" xfDxf="1" sqref="C13" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFBFBFBF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFBFBFBF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFBFBFBF"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" xfDxf="1" sqref="C14" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFBFBFBF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFBFBFBF"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" xfDxf="1" sqref="C15" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFBFBFBF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFBFBFBF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFBFBFBF"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" xfDxf="1" sqref="C16" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFBFBFBF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFBFBFBF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFBFBFBF"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="1171" sId="3">
+    <nc r="C13" t="inlineStr">
+      <is>
+        <t>stainless steel A2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1172" sId="3">
+    <nc r="C14" t="inlineStr">
+      <is>
+        <t>stainless steel A2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1173" sId="3">
+    <nc r="C15" t="inlineStr">
+      <is>
+        <t>stainless steel A2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1174" sId="3">
+    <nc r="C16" t="inlineStr">
+      <is>
+        <t>stainless steel A2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1175" sId="3" odxf="1" dxf="1">
+    <nc r="C17" t="inlineStr">
+      <is>
+        <t>stainless steel A2</t>
+      </is>
+    </nc>
+    <odxf>
+      <border outline="0">
+        <left/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FFBFBFBF"/>
+        </bottom>
+      </border>
+    </odxf>
+    <ndxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFBFBFBF"/>
+        </left>
+        <top style="medium">
+          <color rgb="FFBFBFBF"/>
+        </top>
+        <bottom/>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="1176" sId="3" xfDxf="1" dxf="1">
+    <nc r="E19" t="inlineStr">
+      <is>
+        <t>DIN 7337</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <border outline="0">
+        <right style="medium">
+          <color rgb="FFBFBFBF"/>
+        </right>
+        <bottom style="medium">
+          <color rgb="FFBFBFBF"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="1177" sId="3" odxf="1" dxf="1">
+    <nc r="C19" t="inlineStr">
+      <is>
+        <t>stainless steel A2</t>
+      </is>
+    </nc>
+    <odxf>
+      <border outline="0">
+        <left/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FFBFBFBF"/>
+        </bottom>
+      </border>
+    </odxf>
+    <ndxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFBFBFBF"/>
+        </left>
+        <top style="medium">
+          <color rgb="FFBFBFBF"/>
+        </top>
+        <bottom/>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="1178" sId="3" odxf="1" dxf="1">
+    <nc r="C18" t="inlineStr">
+      <is>
+        <t>stainless steel A2</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FFBFBFBF"/>
+        </bottom>
+      </border>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFBFBFBF"/>
+        </left>
+        <top style="medium">
+          <color rgb="FFBFBFBF"/>
+        </top>
+        <bottom/>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="1179" sId="3" odxf="1" dxf="1">
+    <nc r="C20" t="inlineStr">
+      <is>
+        <t>stainless steel A2</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FFBFBFBF"/>
+        </bottom>
+      </border>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFBFBFBF"/>
+        </left>
+        <top style="medium">
+          <color rgb="FFBFBFBF"/>
+        </top>
+        <bottom/>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="1180" sId="3" odxf="1" dxf="1">
+    <nc r="C21" t="inlineStr">
+      <is>
+        <t>stainless steel A2</t>
+      </is>
+    </nc>
+    <odxf>
+      <border outline="0">
+        <left/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FFBFBFBF"/>
+        </bottom>
+      </border>
+    </odxf>
+    <ndxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFBFBFBF"/>
+        </left>
+        <top style="medium">
+          <color rgb="FFBFBFBF"/>
+        </top>
+        <bottom/>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="1181" sId="3" odxf="1" dxf="1">
+    <nc r="C22" t="inlineStr">
+      <is>
+        <t>stainless steel A2</t>
+      </is>
+    </nc>
+    <odxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FFBFBFBF"/>
+        </bottom>
+      </border>
+    </odxf>
+    <ndxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFBFBFBF"/>
+        </left>
+        <top style="medium">
+          <color rgb="FFBFBFBF"/>
+        </top>
+        <bottom/>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="1182" sId="3" odxf="1" dxf="1">
+    <nc r="C23" t="inlineStr">
+      <is>
+        <t>stainless steel A2</t>
+      </is>
+    </nc>
+    <odxf>
+      <border outline="0">
+        <left/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FFBFBFBF"/>
+        </bottom>
+      </border>
+    </odxf>
+    <ndxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFBFBFBF"/>
+        </left>
+        <top style="medium">
+          <color rgb="FFBFBFBF"/>
+        </top>
+        <bottom/>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="1183" sId="3" xfDxf="1" dxf="1">
+    <nc r="E24" t="inlineStr">
+      <is>
+        <t>ISO 3601</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <border outline="0">
+        <right style="medium">
+          <color rgb="FFBFBFBF"/>
+        </right>
+        <bottom style="medium">
+          <color rgb="FFBFBFBF"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="1184" sId="3" xfDxf="1" dxf="1">
+    <nc r="E25" t="inlineStr">
+      <is>
+        <t>ISO 29864</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <border outline="0">
+        <right style="medium">
+          <color rgb="FFBFBFBF"/>
+        </right>
+        <bottom style="medium">
+          <color rgb="FFBFBFBF"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="1185" sId="3" xfDxf="1" dxf="1">
+    <nc r="E26" t="inlineStr">
+      <is>
+        <t>ISO 29864</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <border outline="0">
+        <right style="medium">
+          <color rgb="FFBFBFBF"/>
+        </right>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="1186" sId="3">
+    <nc r="E27" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1187" sId="3" xfDxf="1" dxf="1">
+    <nc r="E28" t="inlineStr">
+      <is>
+        <t>ISO 29864</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <border outline="0">
+        <right style="medium">
+          <color rgb="FFBFBFBF"/>
+        </right>
+        <bottom style="medium">
+          <color rgb="FFBFBFBF"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="1188" sId="3">
+    <nc r="E29" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="1189" sId="2" ref="A44:XFD44" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A44:XFD44" start="0" length="0"/>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="A44">
+        <f>BOM_word!#REF!</f>
+      </nc>
+      <ndxf>
+        <alignment horizontal="center" vertical="top"/>
+        <border outline="0">
+          <left style="medium">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="B44">
+        <f>BOM_word!#REF!</f>
+      </nc>
+      <ndxf>
+        <alignment horizontal="center" vertical="top"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="C44">
+        <f>BOM_word!#REF!</f>
+      </nc>
+      <ndxf>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="D44">
+        <f>BOM_word!#REF!</f>
+      </nc>
+      <ndxf>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+    <rfmt sheetId="2" sqref="E44" start="0" length="0">
+      <dxf>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="F44" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </nc>
+      <ndxf>
+        <numFmt numFmtId="30" formatCode="@"/>
+        <alignment horizontal="center" vertical="top"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="medium">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="G44">
+        <f>BOM_word!#REF!</f>
+      </nc>
+      <ndxf>
+        <numFmt numFmtId="30" formatCode="@"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="medium">
+            <color indexed="64"/>
+          </right>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="1190" sId="2" ref="A44:XFD44" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A44:XFD44" start="0" length="0"/>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="A44">
+        <f>BOM_word!#REF!</f>
+      </nc>
+      <ndxf>
+        <alignment horizontal="center" vertical="top"/>
+        <border outline="0">
+          <left style="medium">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="B44">
+        <f>BOM_word!#REF!</f>
+      </nc>
+      <ndxf>
+        <alignment horizontal="center" vertical="top"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="C44">
+        <f>BOM_word!#REF!</f>
+      </nc>
+      <ndxf>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="D44">
+        <f>BOM_word!#REF!</f>
+      </nc>
+      <ndxf>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+    <rfmt sheetId="2" sqref="E44" start="0" length="0">
+      <dxf>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="F44" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </nc>
+      <ndxf>
+        <numFmt numFmtId="30" formatCode="@"/>
+        <alignment horizontal="center" vertical="top"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="medium">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="2" dxf="1">
+      <nc r="G44">
+        <f>BOM_word!#REF!</f>
+      </nc>
+      <ndxf>
+        <numFmt numFmtId="30" formatCode="@"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="medium">
+            <color indexed="64"/>
+          </right>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rcc rId="1191" sId="2">
+    <nc r="D13" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1192" sId="2">
+    <nc r="D14" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1193" sId="2">
+    <nc r="D15" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1194" sId="2">
+    <nc r="D16" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1195" sId="2">
+    <nc r="D17" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1196" sId="2">
+    <nc r="D18" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1197" sId="2">
+    <nc r="D19" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1198" sId="2">
+    <nc r="D20" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1199" sId="2">
+    <nc r="D21" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1200" sId="2">
+    <nc r="D22" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1201" sId="2">
+    <nc r="D23" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1202" sId="2">
+    <nc r="D24" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1203" sId="2">
+    <nc r="D25" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1204" sId="2">
+    <nc r="D26" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1205" sId="2">
+    <nc r="G13" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1206" sId="2">
+    <nc r="G14" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1207" sId="2">
+    <nc r="G15" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1208" sId="2">
+    <nc r="G16" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1209" sId="2">
+    <nc r="G17" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1210" sId="2">
+    <nc r="G18" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1211" sId="2">
+    <nc r="G19" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1212" sId="2">
+    <nc r="G20" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1213" sId="2">
+    <nc r="G21" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1214" sId="2">
+    <nc r="G22" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1215" sId="2">
+    <nc r="G23" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1216" sId="2">
+    <nc r="G24" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1217" sId="2">
+    <nc r="G25" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1218" sId="2">
+    <nc r="G26" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1219" sId="2" xfDxf="1" dxf="1">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+    <ndxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="2" sqref="E2" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E3" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E4" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E5" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E6" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E7" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E8" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E9" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E10" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E11" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E12" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E13" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E14" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E15" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E16" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E17" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E18" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E19" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E20" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E21" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E22" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E23" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E24" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E25" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E26" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E27" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E28" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E29" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E30" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E31" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E32" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E33" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E34" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E35" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E36" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E37" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E38" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E39" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E40" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E41" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E42" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E43" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="1220" sId="2">
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1221" sId="2">
+    <nc r="E3" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1222" sId="2">
+    <nc r="E4" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1223" sId="2">
+    <nc r="E5" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1224" sId="2">
+    <nc r="E6" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1225" sId="2">
+    <nc r="E7" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1226" sId="2">
+    <nc r="E8" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1227" sId="2">
+    <nc r="E9" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1228" sId="2">
+    <nc r="E10" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1229" sId="2">
+    <nc r="E11" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1230" sId="2">
+    <nc r="E12" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1231" sId="2">
+    <nc r="E13" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1232" sId="2">
+    <nc r="E14" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1233" sId="2">
+    <nc r="E15" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1234" sId="2">
+    <nc r="E16" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1235" sId="2">
+    <nc r="E17" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1236" sId="2">
+    <nc r="E18" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1237" sId="2">
+    <nc r="E19" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1238" sId="2">
+    <nc r="E20" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1239" sId="2">
+    <nc r="E21" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1240" sId="2">
+    <nc r="E22" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1241" sId="2">
+    <nc r="E23" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1242" sId="2">
+    <nc r="E24" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1243" sId="2">
+    <nc r="E25" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1244" sId="2">
+    <nc r="E26" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1245" sId="2">
+    <nc r="E27" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1246" sId="2">
+    <nc r="E28" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1247" sId="2">
+    <nc r="E29" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1248" sId="2">
+    <nc r="E30" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1249" sId="2">
+    <nc r="E31" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1250" sId="2">
+    <nc r="E32" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1251" sId="2">
+    <nc r="E33" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1252" sId="2">
+    <nc r="E34" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1253" sId="2">
+    <nc r="E35" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1254" sId="2">
+    <nc r="E36" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1255" sId="2">
+    <nc r="E37" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1256" sId="2">
+    <nc r="E38" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1257" sId="2">
+    <nc r="E39" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1258" sId="2">
+    <nc r="E40" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1259" sId="2">
+    <nc r="E41" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1260" sId="2">
+    <nc r="E42" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1261" sId="2">
+    <nc r="E43" t="inlineStr">
+      <is>
+        <t>33946-2015.02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{85B28F95-3488-41DC-90A4-160F98D9658E}" action="delete"/>
+  <rcv guid="{85B28F95-3488-41DC-90A4-160F98D9658E}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1262" sId="2">
+    <oc r="D41">
+      <f>BOM_word!E27</f>
+    </oc>
+    <nc r="D41">
+      <f>BOM_word!E27</f>
+    </nc>
+  </rcc>
+  <rfmt sheetId="3" sqref="E27" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="1263" sId="3">
+    <oc r="E27" t="inlineStr">
+      <is>
+        <t>-</t>
+      </is>
+    </oc>
+    <nc r="E27" t="inlineStr">
+      <is>
+        <t>ISO 29864</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{85B28F95-3488-41DC-90A4-160F98D9658E}" action="delete"/>
+  <rcv guid="{85B28F95-3488-41DC-90A4-160F98D9658E}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog19.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1264" sId="3">
+    <oc r="H2" t="b">
+      <v>0</v>
+    </oc>
+    <nc r="H2" t="b">
+      <v>1</v>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -39335,10 +41460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4420186A-89FE-4CA6-AA68-692FD3F9CD8C}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39350,894 +41475,892 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="H1" s="55" t="s">
-        <v>174</v>
+      <c r="G1" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="54" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19">
+      <c r="A2" s="18">
         <v>2</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="19">
         <v>1</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="42" t="b">
+      <c r="G2" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="42" t="b">
-        <v>0</v>
+      <c r="H2" s="41" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21">
+      <c r="A3" s="20">
         <v>3</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="21">
         <v>1</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="42" t="b">
+      <c r="G3" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="H3" s="42" t="b">
+      <c r="H3" s="41" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19">
+    <row r="4" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18">
         <v>4</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>1</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="G4" s="42" t="b">
+      <c r="G4" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="42" t="b">
+      <c r="H4" s="41" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21">
+    <row r="5" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="20">
         <v>5</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>1</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="G5" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="18">
+        <v>6</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="42" t="b">
+      <c r="C6" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="19">
         <v>1</v>
       </c>
-      <c r="H5" s="42" t="b">
+      <c r="E6" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="G6" s="41" t="b">
         <v>1</v>
       </c>
+      <c r="H6" s="41" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="19">
-        <v>6</v>
-      </c>
-      <c r="B6" s="20" t="s">
+    <row r="7" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="20">
+        <v>7</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="20">
+      <c r="C7" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="21">
         <v>1</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" s="42" t="b">
+      <c r="E7" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="H6" s="42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21">
-        <v>7</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="22">
-        <v>1</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" s="42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="42" t="b">
+      <c r="H7" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="19">
+      <c r="A8" s="18">
         <v>8</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>1</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="42" t="b">
+      <c r="G8" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="H8" s="42" t="b">
+      <c r="H8" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <v>9</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="21">
+        <v>1</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="18">
+        <v>10</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C10" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D10" s="19">
         <v>1</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E10" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="G9" s="42" t="b">
+      <c r="G10" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="H9" s="42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="19">
-        <v>10</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="20">
-        <v>1</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" s="42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="42" t="b">
+      <c r="H10" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
         <v>11</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="22" t="s">
+      <c r="B11" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <v>1</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="G11" s="42" t="b">
+      <c r="E11" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="G11" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="H11" s="42" t="b">
+      <c r="H11" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="19">
+      <c r="A12" s="18">
         <v>12</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="D12" s="24">
+      <c r="B12" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="23">
         <v>1</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="G12" s="42" t="b">
+      <c r="E12" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="G12" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="H12" s="42" t="b">
+      <c r="H12" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="60">
+      <c r="A13" s="59">
         <v>27</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="57">
+      <c r="B13" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>358</v>
+      </c>
+      <c r="D13" s="56">
         <v>12</v>
       </c>
-      <c r="E13" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="G13" s="42" t="b">
+      <c r="E13" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="H13" s="42" t="b">
+      <c r="H13" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="27">
+      <c r="A14" s="26">
         <v>28</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56">
+      <c r="B14" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>358</v>
+      </c>
+      <c r="D14" s="55">
         <v>4</v>
       </c>
-      <c r="E14" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="G14" s="42" t="b">
+      <c r="E14" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="H14" s="42" t="b">
+      <c r="H14" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="60">
+      <c r="A15" s="59">
         <v>29</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="57">
+      <c r="B15" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>358</v>
+      </c>
+      <c r="D15" s="56">
         <v>12</v>
       </c>
-      <c r="E15" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="G15" s="42" t="b">
+      <c r="E15" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="H15" s="42" t="b">
+      <c r="H15" s="41" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="58">
+    <row r="16" spans="1:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="57">
         <v>30</v>
       </c>
-      <c r="B16" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59">
+      <c r="B16" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>358</v>
+      </c>
+      <c r="D16" s="58">
         <v>2</v>
       </c>
-      <c r="E16" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="G16" s="42" t="b">
+      <c r="E16" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="H16" s="42" t="b">
+      <c r="H16" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="21">
+      <c r="A17" s="20">
         <v>31</v>
       </c>
-      <c r="B17" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22">
+      <c r="B17" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>358</v>
+      </c>
+      <c r="D17" s="21">
         <v>4</v>
       </c>
-      <c r="E17" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="G17" s="42" t="b">
+      <c r="E17" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="H17" s="42" t="b">
+      <c r="H17" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="30">
+      <c r="A18" s="29">
         <v>32</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="20">
+      <c r="B18" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>358</v>
+      </c>
+      <c r="D18" s="19">
         <v>4</v>
       </c>
-      <c r="E18" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="G18" s="42" t="b">
+      <c r="E18" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="H18" s="42" t="b">
+      <c r="H18" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="21">
+      <c r="A19" s="20">
         <v>33</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22">
+      <c r="B19" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>358</v>
+      </c>
+      <c r="D19" s="21">
         <v>12</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="G19" s="42" t="b">
+      <c r="E19" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="G19" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="H19" s="42" t="b">
+      <c r="H19" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="30">
+      <c r="A20" s="29">
         <v>34</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="20">
+      <c r="B20" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>358</v>
+      </c>
+      <c r="D20" s="19">
         <v>16</v>
       </c>
-      <c r="E20" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" s="42" t="b">
+      <c r="E20" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="H20" s="42" t="b">
+      <c r="H20" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="30">
+      <c r="A21" s="29">
         <v>35</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22">
+      <c r="B21" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>358</v>
+      </c>
+      <c r="D21" s="21">
         <v>4</v>
       </c>
-      <c r="E21" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="G21" s="42" t="b">
+      <c r="E21" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="H21" s="42" t="b">
+      <c r="H21" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="21">
+      <c r="A22" s="20">
         <v>36</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="20">
+      <c r="B22" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>358</v>
+      </c>
+      <c r="D22" s="19">
         <v>12</v>
       </c>
-      <c r="E22" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="G22" s="42" t="b">
+      <c r="E22" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="H22" s="42" t="b">
+      <c r="H22" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="30">
+      <c r="A23" s="29">
         <v>37</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22">
+      <c r="B23" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>358</v>
+      </c>
+      <c r="D23" s="21">
         <v>18</v>
       </c>
-      <c r="E23" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="42" t="b">
+      <c r="E23" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="H23" s="42" t="b">
+      <c r="H23" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="30">
+      <c r="A24" s="29">
         <v>38</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="D24" s="22">
+      <c r="B24" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" s="21">
         <v>1</v>
       </c>
-      <c r="E24" s="22"/>
-      <c r="G24" s="42" t="b">
+      <c r="E24" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="G24" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="H24" s="42" t="b">
+      <c r="H24" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="21">
+      <c r="A25" s="20">
         <v>39</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25" s="22">
+      <c r="B25" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="21">
         <v>1</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="G25" s="42" t="b">
+      <c r="E25" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="G25" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="H25" s="42" t="b">
+      <c r="H25" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="30">
+      <c r="A26" s="29">
         <v>40</v>
       </c>
-      <c r="B26" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="D26" s="29">
+      <c r="B26" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="28">
         <v>1</v>
       </c>
-      <c r="E26" s="29"/>
-      <c r="G26" s="42" t="b">
+      <c r="E26" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="G26" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="H26" s="42" t="b">
+      <c r="H26" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="30">
+      <c r="A27" s="29">
         <v>41</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="D27" s="22">
+      <c r="B27" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="21">
         <v>1</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="G27" s="42" t="b">
+      <c r="E27" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="G27" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="H27" s="42" t="b">
+      <c r="H27" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="21">
+      <c r="A28" s="20">
         <v>42</v>
       </c>
-      <c r="B28" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="D28" s="22">
+      <c r="B28" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" s="21">
         <v>1</v>
       </c>
-      <c r="E28" s="22"/>
-      <c r="G28" s="42" t="b">
+      <c r="E28" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="G28" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="H28" s="42" t="b">
+      <c r="H28" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="30">
+      <c r="A29" s="29">
         <v>43</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D29" s="19">
+        <v>1</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="G29" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="226.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="D29" s="20">
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="31">
         <v>1</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="G29" s="42" t="b">
+      <c r="B36" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="33">
         <v>1</v>
       </c>
-      <c r="H29" s="42" t="b">
+    </row>
+    <row r="37" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="34">
+        <v>13</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="30">
-        <v>44</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22">
+    <row r="38" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="49">
+        <v>14</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" s="50">
         <v>1</v>
       </c>
-      <c r="E30" s="22"/>
-      <c r="G30" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" s="42" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="31" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="21">
-        <v>45</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="20">
+    <row r="39" spans="1:4" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="49">
+        <v>15</v>
+      </c>
+      <c r="B39" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="39">
+        <v>16</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" s="46">
         <v>1</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="G31" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" s="42" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="34" spans="1:4" ht="226.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="31" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="32">
+    <row r="41" spans="1:4" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="51">
+        <v>17</v>
+      </c>
+      <c r="B41" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="48">
         <v>1</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="35">
-        <v>13</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="D39" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="50">
-        <v>14</v>
-      </c>
-      <c r="B40" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="C40" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="D40" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="50">
-        <v>15</v>
-      </c>
-      <c r="B41" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="C41" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="D41" s="51">
-        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="40">
-        <v>16</v>
-      </c>
-      <c r="B42" s="41" t="s">
+      <c r="A42" s="39">
+        <v>18</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="C42" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="D42" s="47">
+      <c r="D42" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="52">
-        <v>17</v>
-      </c>
-      <c r="B43" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="C43" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="D43" s="49">
+    <row r="43" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="53">
+        <v>19</v>
+      </c>
+      <c r="B43" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="40">
-        <v>18</v>
-      </c>
-      <c r="B44" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="C44" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="D44" s="47">
+      <c r="A44" s="43">
+        <v>20</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" s="48">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="54">
-        <v>19</v>
-      </c>
-      <c r="B45" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="C45" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="D45" s="49">
+    <row r="45" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="42">
+        <v>21</v>
+      </c>
+      <c r="B45" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="44">
-        <v>20</v>
-      </c>
-      <c r="B46" s="38" t="s">
+    <row r="46" spans="1:4" ht="46.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="43">
+        <v>22</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="C46" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="D46" s="49">
+      <c r="D46" s="48">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="43">
-        <v>21</v>
-      </c>
-      <c r="B47" s="41" t="s">
+    <row r="47" spans="1:4" ht="46.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="42">
+        <v>23</v>
+      </c>
+      <c r="B47" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="C47" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="D47" s="47">
+      <c r="C47" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="46.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="44">
-        <v>22</v>
-      </c>
-      <c r="B48" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="C48" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="D48" s="49">
+      <c r="C48" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="46.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="43">
-        <v>23</v>
-      </c>
-      <c r="B49" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="42">
+        <v>26</v>
+      </c>
+      <c r="B50" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="C49" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="D49" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="46.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="45">
-        <v>24</v>
-      </c>
-      <c r="B50" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="C50" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="D50" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="46.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="44">
-        <v>25</v>
-      </c>
-      <c r="B51" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="C51" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="D51" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="43">
-        <v>26</v>
-      </c>
-      <c r="B52" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="C52" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="D52" s="49">
+      <c r="C50" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="48">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{85B28F95-3488-41DC-90A4-160F98D9658E}" topLeftCell="A46">
-      <selection activeCell="C14" sqref="C14"/>
+    <customSheetView guid="{85B28F95-3488-41DC-90A4-160F98D9658E}">
+      <selection activeCell="F31" sqref="F31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -40247,6 +42370,7 @@
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
@@ -40254,10 +42378,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44EC70D-088D-47BD-A91C-99C4675A6A1B}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40265,1119 +42389,1211 @@
     <col min="2" max="2" width="10.44140625" customWidth="1"/>
     <col min="3" max="3" width="28.77734375" customWidth="1"/>
     <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
     <col min="7" max="7" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6">
+      <c r="A1" s="5">
+        <f>BOM_word!A36</f>
+        <v>1</v>
+      </c>
+      <c r="B1" s="6">
+        <f>BOM_word!D36</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="str">
+        <f>BOM_word!B36</f>
+        <v>Printed Circuit Board</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12">
+        <f>BOM_word!A2</f>
+        <v>2</v>
+      </c>
+      <c r="B2" s="13">
+        <f>BOM_word!D2</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="str">
+        <f>BOM_word!B2</f>
+        <v>PCB Mount</v>
+      </c>
+      <c r="D2" s="14" t="str">
+        <f>BOM_word!E2</f>
+        <v>ISO 21305-1:2019</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="15" t="str">
+        <f>BOM_word!C2</f>
+        <v>General Purpose Polycarbonate</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12">
+        <f>BOM_word!A3</f>
+        <v>3</v>
+      </c>
+      <c r="B3" s="13">
+        <f>BOM_word!D3</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="str">
+        <f>BOM_word!B3</f>
+        <v>Battery Cradle</v>
+      </c>
+      <c r="D3" s="14" t="str">
+        <f>BOM_word!E3</f>
+        <v>ISO 2580-1 ABS</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" s="15" t="str">
+        <f>BOM_word!C3</f>
+        <v>Heat resistant ABS</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12">
+        <f>BOM_word!A4</f>
+        <v>4</v>
+      </c>
+      <c r="B4" s="13">
+        <f>BOM_word!D4</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="14" t="str">
+        <f>BOM_word!B4</f>
+        <v>Panel Frame</v>
+      </c>
+      <c r="D4" s="14" t="str">
+        <f>BOM_word!E4</f>
+        <v>ISO: Al-Mg2,5</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="15" t="str">
+        <f>BOM_word!C4</f>
+        <v>5052 Aluminium</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12">
+        <f>BOM_word!A5</f>
+        <v>5</v>
+      </c>
+      <c r="B5" s="13">
+        <f>BOM_word!D5</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="14" t="str">
+        <f>BOM_word!B5</f>
+        <v>Load Cell Compartment</v>
+      </c>
+      <c r="D5" s="14" t="str">
+        <f>BOM_word!E5</f>
+        <v>ISO 7214 1998</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="15" t="str">
+        <f>BOM_word!C5</f>
+        <v>Medium Density EVA Foam</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
+        <f>BOM_word!A6</f>
+        <v>6</v>
+      </c>
+      <c r="B6" s="13">
+        <f>BOM_word!D6</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="14" t="str">
+        <f>BOM_word!B6</f>
+        <v>Aluminium Box Foam</v>
+      </c>
+      <c r="D6" s="14" t="str">
+        <f>BOM_word!E6</f>
+        <v>ISO 7214 1998</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="15" t="str">
+        <f>BOM_word!C6</f>
+        <v>Medium Density EVA Foam</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12">
+        <f>BOM_word!A7</f>
+        <v>7</v>
+      </c>
+      <c r="B7" s="13">
+        <f>BOM_word!D7</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="14" t="str">
+        <f>BOM_word!B7</f>
+        <v>Electronics Basin</v>
+      </c>
+      <c r="D7" s="14" t="str">
+        <f>BOM_word!E7</f>
+        <v>ISO: Al-Mg2,5</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" s="15" t="str">
+        <f>BOM_word!C7</f>
+        <v>5052 Aluminium</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <f>BOM_word!A8</f>
+        <v>8</v>
+      </c>
+      <c r="B8" s="13">
+        <f>BOM_word!D8</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="14" t="str">
+        <f>BOM_word!B8</f>
+        <v>Aluminium Frame</v>
+      </c>
+      <c r="D8" s="14" t="str">
+        <f>BOM_word!E8</f>
+        <v>ISO: Al-Mg2,5</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="15" t="str">
+        <f>BOM_word!C8</f>
+        <v>5052 Aluminium</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
+        <f>BOM_word!A9</f>
+        <v>9</v>
+      </c>
+      <c r="B9" s="13">
+        <f>BOM_word!D9</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="14" t="str">
+        <f>BOM_word!B9</f>
+        <v>Panel</v>
+      </c>
+      <c r="D9" s="14" t="str">
+        <f>BOM_word!E9</f>
+        <v>ISO: Al-Mg2,5</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G9" s="15" t="str">
+        <f>BOM_word!C9</f>
+        <v>5052 Aluminium</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
+        <f>BOM_word!A10</f>
+        <v>10</v>
+      </c>
+      <c r="B10" s="13">
+        <f>BOM_word!D10</f>
+        <v>1</v>
+      </c>
+      <c r="C10" s="14" t="str">
+        <f>BOM_word!B10</f>
+        <v>Cable Tray</v>
+      </c>
+      <c r="D10" s="14" t="str">
+        <f>BOM_word!E10</f>
+        <v>ISO: Al-Mg2,5</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" s="15" t="str">
+        <f>BOM_word!C10</f>
+        <v>5052 Aluminium</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12">
+        <f>BOM_word!A11</f>
+        <v>11</v>
+      </c>
+      <c r="B11" s="13">
+        <f>BOM_word!D11</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="14" t="str">
+        <f>BOM_word!B11</f>
+        <v>Top Foam</v>
+      </c>
+      <c r="D11" s="14" t="str">
+        <f>BOM_word!E11</f>
+        <v>ISO 7214 1998</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" s="15" t="str">
+        <f>BOM_word!C11</f>
+        <v>Medium Density EVA Foam</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12">
+        <f>BOM_word!A12</f>
+        <v>12</v>
+      </c>
+      <c r="B12" s="13">
+        <f>BOM_word!D12</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="14" t="str">
+        <f>BOM_word!B12</f>
+        <v>Pelican Case</v>
+      </c>
+      <c r="D12" s="14" t="str">
+        <f>BOM_word!E12</f>
+        <v>-</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G12" s="15" t="str">
+        <f>BOM_word!C12</f>
+        <v>Polypropylene</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12">
+        <f>BOM_word!A37</f>
+        <v>13</v>
+      </c>
+      <c r="B13" s="13">
+        <f>BOM_word!D37</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="14" t="str">
+        <f>BOM_word!B37</f>
+        <v xml:space="preserve">M12 Load Cell Cable </v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="12">
         <f>BOM_word!A38</f>
-        <v>1</v>
-      </c>
-      <c r="B1" s="7">
+        <v>14</v>
+      </c>
+      <c r="B14" s="13">
         <f>BOM_word!D38</f>
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="str">
+      <c r="C14" s="14" t="str">
         <f>BOM_word!B38</f>
-        <v>Printed Circuit Board</v>
-      </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>176</v>
+        <v>TouchScreen/SPI Touch Controller</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13">
-        <f>BOM_word!A2</f>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12">
+        <f>BOM_word!A39</f>
+        <v>15</v>
+      </c>
+      <c r="B15" s="13">
+        <f>BOM_word!D39</f>
         <v>2</v>
       </c>
-      <c r="B2" s="14">
-        <f>BOM_word!D2</f>
-        <v>1</v>
-      </c>
-      <c r="C2" s="15" t="str">
-        <f>BOM_word!B2</f>
-        <v>PCB Mount</v>
-      </c>
-      <c r="D2" s="15" t="str">
-        <f>BOM_word!E2</f>
-        <v>ISO 21305-1:2019</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G2" s="16" t="str">
-        <f>BOM_word!C2</f>
-        <v>General Purpose Polycarbonate</v>
+      <c r="C15" s="14" t="str">
+        <f>BOM_word!B39</f>
+        <v>Push Buttons</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>356</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13">
-        <f>BOM_word!A3</f>
-        <v>3</v>
-      </c>
-      <c r="B3" s="14">
-        <f>BOM_word!D3</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="15" t="str">
-        <f>BOM_word!B3</f>
-        <v>Battery Cradle</v>
-      </c>
-      <c r="D3" s="15" t="str">
-        <f>BOM_word!E3</f>
-        <v>ISO 2580-1 ABS</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G3" s="16" t="str">
-        <f>BOM_word!C3</f>
-        <v>Heat resistant ABS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13">
-        <f>BOM_word!A4</f>
-        <v>4</v>
-      </c>
-      <c r="B4" s="14">
-        <f>BOM_word!D4</f>
-        <v>1</v>
-      </c>
-      <c r="C4" s="15" t="str">
-        <f>BOM_word!B4</f>
-        <v>Panel Frame</v>
-      </c>
-      <c r="D4" s="15" t="str">
-        <f>BOM_word!E4</f>
-        <v>ISO: Al-Mg2,5</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G4" s="16" t="str">
-        <f>BOM_word!C4</f>
-        <v>5052 Aluminium</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13">
-        <f>BOM_word!A5</f>
-        <v>5</v>
-      </c>
-      <c r="B5" s="14">
-        <f>BOM_word!D5</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="15" t="str">
-        <f>BOM_word!B5</f>
-        <v>Load Cell Compartment</v>
-      </c>
-      <c r="D5" s="15" t="str">
-        <f>BOM_word!E5</f>
-        <v>Make</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G5" s="16" t="str">
-        <f>BOM_word!C5</f>
-        <v>Medium Density EVA Foam</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13">
-        <f>BOM_word!A6</f>
-        <v>6</v>
-      </c>
-      <c r="B6" s="14">
-        <f>BOM_word!D6</f>
-        <v>1</v>
-      </c>
-      <c r="C6" s="15" t="str">
-        <f>BOM_word!B6</f>
-        <v>Aluminium Box Foam</v>
-      </c>
-      <c r="D6" s="15" t="str">
-        <f>BOM_word!E6</f>
-        <v>Make</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G6" s="16" t="str">
-        <f>BOM_word!C6</f>
-        <v>Medium Density EVA Foam</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13">
-        <f>BOM_word!A7</f>
-        <v>7</v>
-      </c>
-      <c r="B7" s="14">
-        <f>BOM_word!D7</f>
-        <v>1</v>
-      </c>
-      <c r="C7" s="15" t="str">
-        <f>BOM_word!B7</f>
-        <v>Electronics Basin</v>
-      </c>
-      <c r="D7" s="15" t="str">
-        <f>BOM_word!E7</f>
-        <v>ISO: Al-Mg2,5</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="16" t="str">
-        <f>BOM_word!C7</f>
-        <v>5052 Aluminium</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13">
-        <f>BOM_word!A8</f>
-        <v>8</v>
-      </c>
-      <c r="B8" s="14">
-        <f>BOM_word!D8</f>
-        <v>1</v>
-      </c>
-      <c r="C8" s="15" t="str">
-        <f>BOM_word!B8</f>
-        <v>Aluminium Frame</v>
-      </c>
-      <c r="D8" s="15" t="str">
-        <f>BOM_word!E8</f>
-        <v>ISO: Al-Mg2,5</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G8" s="16" t="str">
-        <f>BOM_word!C8</f>
-        <v>5052 Aluminium</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13">
-        <f>BOM_word!A9</f>
-        <v>9</v>
-      </c>
-      <c r="B9" s="14">
-        <f>BOM_word!D9</f>
-        <v>1</v>
-      </c>
-      <c r="C9" s="15" t="str">
-        <f>BOM_word!B9</f>
-        <v>Panel</v>
-      </c>
-      <c r="D9" s="15" t="str">
-        <f>BOM_word!E9</f>
-        <v>ISO: Al-Mg2,5</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G9" s="16" t="str">
-        <f>BOM_word!C9</f>
-        <v>5052 Aluminium</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13">
-        <f>BOM_word!A10</f>
-        <v>10</v>
-      </c>
-      <c r="B10" s="14">
-        <f>BOM_word!D10</f>
-        <v>1</v>
-      </c>
-      <c r="C10" s="15" t="str">
-        <f>BOM_word!B10</f>
-        <v>Cable Tray</v>
-      </c>
-      <c r="D10" s="15" t="str">
-        <f>BOM_word!E10</f>
-        <v>ISO: Al-Mg2,5</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G10" s="16" t="str">
-        <f>BOM_word!C10</f>
-        <v>5052 Aluminium</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13">
-        <f>BOM_word!A11</f>
-        <v>11</v>
-      </c>
-      <c r="B11" s="14">
-        <f>BOM_word!D11</f>
-        <v>1</v>
-      </c>
-      <c r="C11" s="15" t="str">
-        <f>BOM_word!B11</f>
-        <v>Top Foam</v>
-      </c>
-      <c r="D11" s="15" t="str">
-        <f>BOM_word!E11</f>
-        <v>Make</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G11" s="16" t="str">
-        <f>BOM_word!C11</f>
-        <v>Medium Density EVA Foam</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13">
-        <f>BOM_word!A12</f>
-        <v>12</v>
-      </c>
-      <c r="B12" s="14">
-        <f>BOM_word!D12</f>
-        <v>1</v>
-      </c>
-      <c r="C12" s="15" t="str">
-        <f>BOM_word!B12</f>
-        <v>Pelican Case</v>
-      </c>
-      <c r="D12" s="15" t="str">
-        <f>BOM_word!E12</f>
-        <v>Modify</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G12" s="16" t="str">
-        <f>BOM_word!C12</f>
-        <v>Polypropylene</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13">
-        <f>BOM_word!A39</f>
-        <v>13</v>
-      </c>
-      <c r="B13" s="14">
-        <f>BOM_word!D39</f>
-        <v>1</v>
-      </c>
-      <c r="C13" s="15" t="str">
-        <f>BOM_word!B39</f>
-        <v xml:space="preserve">M12 Load Cell Cable </v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="13">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="12">
         <f>BOM_word!A40</f>
-        <v>14</v>
-      </c>
-      <c r="B14" s="14">
+        <v>16</v>
+      </c>
+      <c r="B16" s="13">
         <f>BOM_word!D40</f>
         <v>1</v>
       </c>
-      <c r="C14" s="15" t="str">
+      <c r="C16" s="14" t="str">
         <f>BOM_word!B40</f>
-        <v>TouchScreen/SPI Touch Controller</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G14" s="16"/>
+        <v xml:space="preserve">M12 5-pin </v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>356</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="12">
         <f>BOM_word!A41</f>
-        <v>15</v>
-      </c>
-      <c r="B15" s="14">
+        <v>17</v>
+      </c>
+      <c r="B17" s="13">
         <f>BOM_word!D41</f>
-        <v>2</v>
-      </c>
-      <c r="C15" s="15" t="str">
+        <v>1</v>
+      </c>
+      <c r="C17" s="14" t="str">
         <f>BOM_word!B41</f>
-        <v>Push Buttons</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G15" s="16"/>
+        <v xml:space="preserve">USB A </v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>356</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12">
         <f>BOM_word!A42</f>
-        <v>16</v>
-      </c>
-      <c r="B16" s="14">
+        <v>18</v>
+      </c>
+      <c r="B18" s="13">
         <f>BOM_word!D42</f>
         <v>1</v>
       </c>
-      <c r="C16" s="15" t="str">
+      <c r="C18" s="14" t="str">
         <f>BOM_word!B42</f>
-        <v xml:space="preserve">M12 5-pin </v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G16" s="16"/>
+        <v xml:space="preserve">USB C </v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>356</v>
+      </c>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="13">
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="12">
         <f>BOM_word!A43</f>
-        <v>17</v>
-      </c>
-      <c r="B17" s="14">
+        <v>19</v>
+      </c>
+      <c r="B19" s="13">
         <f>BOM_word!D43</f>
         <v>1</v>
       </c>
-      <c r="C17" s="15" t="str">
+      <c r="C19" s="14" t="str">
         <f>BOM_word!B43</f>
-        <v xml:space="preserve">USB A </v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G17" s="16"/>
+        <v xml:space="preserve">Bi-colour LED Light Pipe </v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>356</v>
+      </c>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="13">
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="12">
         <f>BOM_word!A44</f>
-        <v>18</v>
-      </c>
-      <c r="B18" s="14">
+        <v>20</v>
+      </c>
+      <c r="B20" s="13">
         <f>BOM_word!D44</f>
         <v>1</v>
       </c>
-      <c r="C18" s="15" t="str">
+      <c r="C20" s="14" t="str">
         <f>BOM_word!B44</f>
-        <v xml:space="preserve">USB C </v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G18" s="16"/>
+        <v>Battery</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>356</v>
+      </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="13">
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="12">
         <f>BOM_word!A45</f>
-        <v>19</v>
-      </c>
-      <c r="B19" s="14">
+        <v>21</v>
+      </c>
+      <c r="B21" s="13">
         <f>BOM_word!D45</f>
         <v>1</v>
       </c>
-      <c r="C19" s="15" t="str">
+      <c r="C21" s="14" t="str">
         <f>BOM_word!B45</f>
-        <v xml:space="preserve">Bi-colour LED Light Pipe </v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G19" s="16"/>
+        <v>150 gf Load Cell</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>356</v>
+      </c>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="13">
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12">
         <f>BOM_word!A46</f>
-        <v>20</v>
-      </c>
-      <c r="B20" s="14">
+        <v>22</v>
+      </c>
+      <c r="B22" s="13">
         <f>BOM_word!D46</f>
         <v>1</v>
       </c>
-      <c r="C20" s="15" t="str">
+      <c r="C22" s="14" t="str">
         <f>BOM_word!B46</f>
-        <v>Battery</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G20" s="16"/>
+        <v>2 kgf Load Cell</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>356</v>
+      </c>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="13">
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="12">
         <f>BOM_word!A47</f>
-        <v>21</v>
-      </c>
-      <c r="B21" s="14">
+        <v>23</v>
+      </c>
+      <c r="B23" s="13">
         <f>BOM_word!D47</f>
         <v>1</v>
       </c>
-      <c r="C21" s="15" t="str">
+      <c r="C23" s="14" t="str">
         <f>BOM_word!B47</f>
-        <v>150 gf Load Cell</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G21" s="16"/>
+        <v>20 kgf Load Cell</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>356</v>
+      </c>
     </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="13">
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12">
         <f>BOM_word!A48</f>
-        <v>22</v>
-      </c>
-      <c r="B22" s="14">
+        <v>24</v>
+      </c>
+      <c r="B24" s="13">
         <f>BOM_word!D48</f>
         <v>1</v>
       </c>
-      <c r="C22" s="15" t="str">
+      <c r="C24" s="14" t="str">
         <f>BOM_word!B48</f>
-        <v>2 kgf Load Cell</v>
-      </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G22" s="16"/>
+        <v>45 kgf Load Cell</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>356</v>
+      </c>
     </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="13">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="12">
         <f>BOM_word!A49</f>
-        <v>23</v>
-      </c>
-      <c r="B23" s="14">
+        <v>25</v>
+      </c>
+      <c r="B25" s="13">
         <f>BOM_word!D49</f>
         <v>1</v>
       </c>
-      <c r="C23" s="15" t="str">
+      <c r="C25" s="14" t="str">
         <f>BOM_word!B49</f>
-        <v>20 kgf Load Cell</v>
-      </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="16"/>
+        <v>250 kgf Load Cell</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>356</v>
+      </c>
     </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="13">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="12">
         <f>BOM_word!A50</f>
-        <v>24</v>
-      </c>
-      <c r="B24" s="14">
+        <v>26</v>
+      </c>
+      <c r="B26" s="13">
         <f>BOM_word!D50</f>
         <v>1</v>
       </c>
-      <c r="C24" s="15" t="str">
+      <c r="C26" s="14" t="str">
         <f>BOM_word!B50</f>
-        <v>45 kgf Load Cell</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G24" s="16"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="13">
-        <f>BOM_word!A51</f>
-        <v>25</v>
-      </c>
-      <c r="B25" s="14">
-        <f>BOM_word!D51</f>
-        <v>1</v>
-      </c>
-      <c r="C25" s="15" t="str">
-        <f>BOM_word!B51</f>
-        <v>250 kgf Load Cell</v>
-      </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G25" s="16"/>
-    </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="13">
-        <f>BOM_word!A52</f>
-        <v>26</v>
-      </c>
-      <c r="B26" s="14">
-        <f>BOM_word!D52</f>
-        <v>1</v>
-      </c>
-      <c r="C26" s="15" t="str">
-        <f>BOM_word!B52</f>
         <v>3000 kgf Load Cell</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G26" s="16"/>
+      <c r="D26" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="13">
+      <c r="A27" s="12">
         <f>BOM_word!A13</f>
         <v>27</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="13">
         <f>BOM_word!D13</f>
         <v>12</v>
       </c>
-      <c r="C27" s="15" t="str">
+      <c r="C27" s="14" t="str">
         <f>BOM_word!B13</f>
         <v>M4 x 0.7 x 12  Button Head Screws</v>
       </c>
-      <c r="D27" s="15" t="str">
+      <c r="D27" s="14" t="str">
         <f>BOM_word!E13</f>
         <v>ISO 7380</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G27" s="16">
+      <c r="E27" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G27" s="15" t="str">
         <f>BOM_word!C13</f>
-        <v>0</v>
+        <v>stainless steel A2</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="13">
+      <c r="A28" s="12">
         <f>BOM_word!A14</f>
         <v>28</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="13">
         <f>BOM_word!D14</f>
         <v>4</v>
       </c>
-      <c r="C28" s="15" t="str">
+      <c r="C28" s="14" t="str">
         <f>BOM_word!B14</f>
         <v>M3 x 0.5 x 10 Button Head Screws</v>
       </c>
-      <c r="D28" s="15" t="str">
+      <c r="D28" s="14" t="str">
         <f>BOM_word!E14</f>
         <v>ISO 7380</v>
       </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G28" s="16">
+      <c r="E28" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G28" s="15" t="str">
         <f>BOM_word!C14</f>
-        <v>0</v>
+        <v>stainless steel A2</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="13">
+      <c r="A29" s="12">
         <f>BOM_word!A15</f>
         <v>29</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="13">
         <f>BOM_word!D15</f>
         <v>12</v>
       </c>
-      <c r="C29" s="15" t="str">
+      <c r="C29" s="14" t="str">
         <f>BOM_word!B15</f>
         <v>M3 x 0.5 x 8 Button Head Screws</v>
       </c>
-      <c r="D29" s="15" t="str">
+      <c r="D29" s="14" t="str">
         <f>BOM_word!E15</f>
         <v>ISO 7380</v>
       </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G29" s="16">
+      <c r="E29" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="15" t="str">
         <f>BOM_word!C15</f>
-        <v>0</v>
+        <v>stainless steel A2</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="13">
+      <c r="A30" s="12">
         <f>BOM_word!A16</f>
         <v>30</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="13">
         <f>BOM_word!D16</f>
         <v>2</v>
       </c>
-      <c r="C30" s="15" t="str">
+      <c r="C30" s="14" t="str">
         <f>BOM_word!B16</f>
         <v>M3 x 0.5 x 6 Button Head Screws</v>
       </c>
-      <c r="D30" s="15" t="str">
+      <c r="D30" s="14" t="str">
         <f>BOM_word!E16</f>
         <v>ISO 7380</v>
       </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G30" s="16">
+      <c r="E30" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G30" s="15" t="str">
         <f>BOM_word!C16</f>
-        <v>0</v>
+        <v>stainless steel A2</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="13">
+      <c r="A31" s="12">
         <f>BOM_word!A17</f>
         <v>31</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="13">
         <f>BOM_word!D17</f>
         <v>4</v>
       </c>
-      <c r="C31" s="15" t="str">
+      <c r="C31" s="14" t="str">
         <f>BOM_word!B17</f>
         <v>M2 x 0.4 x 16 Slotted Pan Head Screw</v>
       </c>
-      <c r="D31" s="15" t="str">
+      <c r="D31" s="14" t="str">
         <f>BOM_word!E17</f>
         <v>ISO 1580</v>
       </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G31" s="16">
+      <c r="E31" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G31" s="15" t="str">
         <f>BOM_word!C17</f>
-        <v>0</v>
+        <v>stainless steel A2</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="13">
+      <c r="A32" s="12">
         <f>BOM_word!A18</f>
         <v>32</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="13">
         <f>BOM_word!D18</f>
         <v>4</v>
       </c>
-      <c r="C32" s="15" t="str">
+      <c r="C32" s="14" t="str">
         <f>BOM_word!B18</f>
         <v>ST2.9 x 9.5 Tapping Screws</v>
       </c>
-      <c r="D32" s="15" t="str">
+      <c r="D32" s="14" t="str">
         <f>BOM_word!E18</f>
         <v>ISO 14585</v>
       </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G32" s="16">
+      <c r="E32" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G32" s="15" t="str">
         <f>BOM_word!C18</f>
-        <v>0</v>
+        <v>stainless steel A2</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="13">
+      <c r="A33" s="12">
         <f>BOM_word!A19</f>
         <v>33</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="13">
         <f>BOM_word!D19</f>
         <v>12</v>
       </c>
-      <c r="C33" s="15" t="str">
+      <c r="C33" s="14" t="str">
         <f>BOM_word!B19</f>
         <v>M4 x 0.7 x 9.2 Rivet Nuts</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="14" t="str">
         <f>BOM_word!E19</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G33" s="16">
+        <v>DIN 7337</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33" s="15" t="str">
         <f>BOM_word!C19</f>
-        <v>0</v>
+        <v>stainless steel A2</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="13">
+      <c r="A34" s="12">
         <f>BOM_word!A20</f>
         <v>34</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="13">
         <f>BOM_word!D20</f>
         <v>16</v>
       </c>
-      <c r="C34" s="15" t="str">
+      <c r="C34" s="14" t="str">
         <f>BOM_word!B20</f>
         <v>M3 x 0.5 Hex Nuts</v>
       </c>
-      <c r="D34" s="15" t="str">
+      <c r="D34" s="14" t="str">
         <f>BOM_word!E20</f>
         <v>ISO 4032</v>
       </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G34" s="16">
+      <c r="E34" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G34" s="15" t="str">
         <f>BOM_word!C20</f>
-        <v>0</v>
+        <v>stainless steel A2</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="13">
+      <c r="A35" s="12">
         <f>BOM_word!A21</f>
         <v>35</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="13">
         <f>BOM_word!D21</f>
         <v>4</v>
       </c>
-      <c r="C35" s="15" t="str">
+      <c r="C35" s="14" t="str">
         <f>BOM_word!B21</f>
         <v>M2 x 0.4 Hex Nuts</v>
       </c>
-      <c r="D35" s="15" t="str">
+      <c r="D35" s="14" t="str">
         <f>BOM_word!E21</f>
         <v>ISO 4035</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G35" s="16">
+      <c r="E35" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G35" s="15" t="str">
         <f>BOM_word!C21</f>
-        <v>0</v>
+        <v>stainless steel A2</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="13">
+      <c r="A36" s="12">
         <f>BOM_word!A22</f>
         <v>36</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="13">
         <f>BOM_word!D22</f>
         <v>12</v>
       </c>
-      <c r="C36" s="15" t="str">
+      <c r="C36" s="14" t="str">
         <f>BOM_word!B22</f>
         <v>M4 Washers</v>
       </c>
-      <c r="D36" s="15" t="str">
+      <c r="D36" s="14" t="str">
         <f>BOM_word!E22</f>
         <v>ISO 7092</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G36" s="16">
+      <c r="E36" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G36" s="15" t="str">
         <f>BOM_word!C22</f>
-        <v>0</v>
+        <v>stainless steel A2</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="13">
+      <c r="A37" s="12">
         <f>BOM_word!A23</f>
         <v>37</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="13">
         <f>BOM_word!D23</f>
         <v>18</v>
       </c>
-      <c r="C37" s="15" t="str">
+      <c r="C37" s="14" t="str">
         <f>BOM_word!B23</f>
         <v>M3 Washers</v>
       </c>
-      <c r="D37" s="15" t="str">
+      <c r="D37" s="14" t="str">
         <f>BOM_word!E23</f>
         <v>ISO 7092</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G37" s="16">
+      <c r="E37" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G37" s="15" t="str">
         <f>BOM_word!C23</f>
-        <v>0</v>
+        <v>stainless steel A2</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="13">
+      <c r="A38" s="12">
         <f>BOM_word!A24</f>
         <v>38</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="13">
         <f>BOM_word!D24</f>
         <v>1</v>
       </c>
-      <c r="C38" s="15" t="str">
+      <c r="C38" s="14" t="str">
         <f>BOM_word!B24</f>
         <v>O-ring</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="14" t="str">
         <f>BOM_word!E24</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G38" s="16" t="str">
+        <v>ISO 3601</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G38" s="15" t="str">
         <f>BOM_word!C24</f>
         <v>Silicone Rubber</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="13">
+      <c r="A39" s="12">
         <f>BOM_word!A25</f>
         <v>39</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="13">
         <f>BOM_word!D25</f>
         <v>1</v>
       </c>
-      <c r="C39" s="15" t="str">
+      <c r="C39" s="14" t="str">
         <f>BOM_word!B25</f>
         <v>Seal for Screen Bezel</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="14" t="str">
         <f>BOM_word!E25</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G39" s="16" t="str">
+        <v>ISO 29864</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G39" s="15" t="str">
         <f>BOM_word!C25</f>
         <v>PVC Foam Tape</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="13">
+      <c r="A40" s="12">
         <f>BOM_word!A26</f>
         <v>40</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B40" s="13">
         <f>BOM_word!D26</f>
         <v>1</v>
       </c>
-      <c r="C40" s="15" t="str">
+      <c r="C40" s="14" t="str">
         <f>BOM_word!B26</f>
         <v>Aluminium Frame Gasket</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="14" t="str">
         <f>BOM_word!E26</f>
-        <v>0</v>
-      </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G40" s="16" t="str">
+        <v>ISO 29864</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G40" s="15" t="str">
         <f>BOM_word!C26</f>
         <v>PVC Foam Tape</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="13">
+      <c r="A41" s="12">
         <f>BOM_word!A27</f>
         <v>41</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="13">
         <f>BOM_word!D27</f>
         <v>1</v>
       </c>
-      <c r="C41" s="15" t="str">
+      <c r="C41" s="14" t="str">
         <f>BOM_word!B27</f>
         <v>USB C Gasket</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="14" t="str">
         <f>BOM_word!E27</f>
-        <v>0</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G41" s="16" t="str">
+        <v>ISO 29864</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G41" s="15" t="str">
         <f>BOM_word!C27</f>
         <v>Built into bought product</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="13">
+      <c r="A42" s="12">
         <f>BOM_word!A28</f>
         <v>42</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="13">
         <f>BOM_word!D28</f>
         <v>1</v>
       </c>
-      <c r="C42" s="15" t="str">
+      <c r="C42" s="14" t="str">
         <f>BOM_word!B28</f>
         <v>M12 Gasket</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="14" t="str">
         <f>BOM_word!E28</f>
-        <v>0</v>
-      </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G42" s="16" t="str">
+        <v>ISO 29864</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G42" s="15" t="str">
         <f>BOM_word!C28</f>
         <v>PVC Foam Tape</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="13">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="12">
         <f>BOM_word!A29</f>
         <v>43</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43" s="13">
         <f>BOM_word!D29</f>
         <v>1</v>
       </c>
-      <c r="C43" s="15" t="str">
+      <c r="C43" s="14" t="str">
         <f>BOM_word!B29</f>
         <v>Velcro Roll</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="14" t="str">
         <f>BOM_word!E29</f>
-        <v>0</v>
-      </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G43" s="16" t="str">
+        <v>-</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G43" s="15" t="str">
         <f>BOM_word!C29</f>
         <v>Velcro</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="13">
-        <f>BOM_word!A30</f>
-        <v>44</v>
-      </c>
-      <c r="B44" s="14">
-        <f>BOM_word!D30</f>
-        <v>1</v>
-      </c>
-      <c r="C44" s="15" t="str">
-        <f>BOM_word!B30</f>
-        <v>PVC Foam Tape</v>
-      </c>
-      <c r="D44" s="15">
-        <f>BOM_word!E30</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G44" s="16">
-        <f>BOM_word!C30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="13">
-        <f>BOM_word!A31</f>
-        <v>45</v>
-      </c>
-      <c r="B45" s="14">
-        <f>BOM_word!D31</f>
-        <v>1</v>
-      </c>
-      <c r="C45" s="15" t="str">
-        <f>BOM_word!B31</f>
-        <v>3M Scotch-Weld Epoxy DP420</v>
-      </c>
-      <c r="D45" s="15">
-        <f>BOM_word!E31</f>
-        <v>0</v>
-      </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G45" s="16">
-        <f>BOM_word!C31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="10" t="s">
+      <c r="A44" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C44" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D44" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E44" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F44" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G46" s="12" t="s">
+      <c r="G44" s="11" t="s">
         <v>102</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{85B28F95-3488-41DC-90A4-160F98D9658E}">
-      <selection activeCell="D45" sqref="D45"/>
+    <customSheetView guid="{85B28F95-3488-41DC-90A4-160F98D9658E}" topLeftCell="A29">
+      <selection activeCell="D41" sqref="D41"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
     <customSheetView guid="{5F732A23-763A-43CE-844F-98E769D3D5C8}">
       <selection activeCell="D15" sqref="D15"/>
@@ -41386,6 +43602,7 @@
   </customSheetViews>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -41393,8 +43610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E46A839-2ABC-44B5-82B8-E3AD498E0F6A}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41420,7 +43637,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
@@ -41434,7 +43651,7 @@
       <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="42" t="b">
+      <c r="E2" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -41449,7 +43666,7 @@
       <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="42" t="b">
+      <c r="E3" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -41464,7 +43681,7 @@
       <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="42" t="b">
+      <c r="E4" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -41479,7 +43696,7 @@
       <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="42" t="b">
+      <c r="E5" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -41494,7 +43711,7 @@
       <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="42" t="b">
+      <c r="E6" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -41509,7 +43726,7 @@
       <c r="D7" s="3">
         <v>18</v>
       </c>
-      <c r="E7" s="42" t="b">
+      <c r="E7" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -41524,7 +43741,7 @@
       <c r="D8" s="3">
         <v>12</v>
       </c>
-      <c r="E8" s="42" t="b">
+      <c r="E8" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -41539,7 +43756,7 @@
       <c r="D9" s="3">
         <v>16</v>
       </c>
-      <c r="E9" s="42" t="b">
+      <c r="E9" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -41554,7 +43771,7 @@
       <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="E10" s="42" t="b">
+      <c r="E10" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -41569,7 +43786,7 @@
       <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="42" t="b">
+      <c r="E11" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -41584,7 +43801,7 @@
       <c r="D12" s="3">
         <v>1</v>
       </c>
-      <c r="E12" s="42" t="b">
+      <c r="E12" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -41599,7 +43816,7 @@
       <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="E13" s="42" t="b">
+      <c r="E13" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -41614,7 +43831,7 @@
       <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="42" t="b">
+      <c r="E14" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -41629,7 +43846,7 @@
       <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="E15" s="42" t="b">
+      <c r="E15" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -41644,7 +43861,7 @@
       <c r="D16" s="3">
         <v>2</v>
       </c>
-      <c r="E16" s="42" t="b">
+      <c r="E16" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -41659,11 +43876,11 @@
       <c r="D17" s="3">
         <v>1</v>
       </c>
-      <c r="E17" s="42" t="b">
+      <c r="E17" s="41" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
@@ -41677,11 +43894,11 @@
       <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="E18" s="42" t="b">
+      <c r="E18" s="41" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="35.4" x14ac:dyDescent="0.3">
@@ -41695,7 +43912,7 @@
       <c r="D19" s="3">
         <v>2</v>
       </c>
-      <c r="E19" s="42" t="b">
+      <c r="E19" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -41710,7 +43927,7 @@
       <c r="D20" s="3">
         <v>1</v>
       </c>
-      <c r="E20" s="42" t="b">
+      <c r="E20" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -41725,7 +43942,7 @@
       <c r="D21" s="3">
         <v>1</v>
       </c>
-      <c r="E21" s="42" t="b">
+      <c r="E21" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -41740,7 +43957,7 @@
       <c r="D22" s="3">
         <v>1</v>
       </c>
-      <c r="E22" s="42" t="b">
+      <c r="E22" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -41755,11 +43972,11 @@
       <c r="D23" s="3">
         <v>4</v>
       </c>
-      <c r="E23" s="42" t="b">
+      <c r="E23" s="41" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="35.4" x14ac:dyDescent="0.3">
@@ -41773,7 +43990,7 @@
       <c r="D24" s="3">
         <v>1</v>
       </c>
-      <c r="E24" s="42" t="b">
+      <c r="E24" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -41788,7 +44005,7 @@
       <c r="D25" s="3">
         <v>1</v>
       </c>
-      <c r="E25" s="42" t="b">
+      <c r="E25" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -41803,7 +44020,7 @@
       <c r="D26" s="3">
         <v>1</v>
       </c>
-      <c r="E26" s="42" t="b">
+      <c r="E26" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -41818,7 +44035,7 @@
       <c r="D27" s="3">
         <v>1</v>
       </c>
-      <c r="E27" s="42" t="b">
+      <c r="E27" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -41833,7 +44050,7 @@
       <c r="D28" s="3">
         <v>1</v>
       </c>
-      <c r="E28" s="42" t="b">
+      <c r="E28" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -41848,7 +44065,7 @@
       <c r="D29" s="3">
         <v>1</v>
       </c>
-      <c r="E29" s="42" t="b">
+      <c r="E29" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -41863,7 +44080,7 @@
       <c r="D30" s="3">
         <v>1</v>
       </c>
-      <c r="E30" s="42" t="b">
+      <c r="E30" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -41878,7 +44095,7 @@
       <c r="D31" s="3">
         <v>12</v>
       </c>
-      <c r="E31" s="42" t="b">
+      <c r="E31" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -41893,7 +44110,7 @@
       <c r="D32" s="3">
         <v>12</v>
       </c>
-      <c r="E32" s="42" t="b">
+      <c r="E32" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -41908,7 +44125,7 @@
       <c r="D33" s="3">
         <v>12</v>
       </c>
-      <c r="E33" s="42" t="b">
+      <c r="E33" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -41923,7 +44140,7 @@
       <c r="D34" s="3">
         <v>1</v>
       </c>
-      <c r="E34" s="42" t="b">
+      <c r="E34" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -41938,7 +44155,7 @@
       <c r="D35" s="3">
         <v>1</v>
       </c>
-      <c r="E35" s="42" t="b">
+      <c r="E35" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -41953,7 +44170,7 @@
       <c r="D36" s="3">
         <v>1</v>
       </c>
-      <c r="E36" s="42" t="b">
+      <c r="E36" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -41968,7 +44185,7 @@
       <c r="D37" s="3">
         <v>4</v>
       </c>
-      <c r="E37" s="42" t="b">
+      <c r="E37" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -41983,7 +44200,7 @@
       <c r="D38" s="3">
         <v>4</v>
       </c>
-      <c r="E38" s="42" t="b">
+      <c r="E38" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -41998,7 +44215,7 @@
       <c r="D39" s="3">
         <v>4</v>
       </c>
-      <c r="E39" s="42" t="b">
+      <c r="E39" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -42015,7 +44232,7 @@
       <c r="D40" s="3">
         <v>1</v>
       </c>
-      <c r="E40" s="42" t="b">
+      <c r="E40" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -42032,7 +44249,7 @@
       <c r="D41" s="3">
         <v>1</v>
       </c>
-      <c r="E41" s="42" t="b">
+      <c r="E41" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -42047,7 +44264,7 @@
       <c r="D42" s="3">
         <v>1</v>
       </c>
-      <c r="E42" s="42" t="b">
+      <c r="E42" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -42062,7 +44279,7 @@
       <c r="D43" s="3">
         <v>2</v>
       </c>
-      <c r="E43" s="42" t="b">
+      <c r="E43" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -42077,7 +44294,7 @@
       <c r="D44" s="3">
         <v>1</v>
       </c>
-      <c r="E44" s="42" t="b">
+      <c r="E44" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -42092,7 +44309,7 @@
       <c r="D45" s="3">
         <v>2</v>
       </c>
-      <c r="E45" s="42" t="b">
+      <c r="E45" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -42107,7 +44324,7 @@
       <c r="D46" s="3">
         <v>1</v>
       </c>
-      <c r="E46" s="42" t="b">
+      <c r="E46" s="41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -42122,14 +44339,14 @@
       <c r="D47" s="3">
         <v>1</v>
       </c>
-      <c r="E47" s="42" t="b">
+      <c r="E47" s="41" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{85B28F95-3488-41DC-90A4-160F98D9658E}">
-      <selection activeCell="E47" sqref="E47"/>
+    <customSheetView guid="{85B28F95-3488-41DC-90A4-160F98D9658E}" topLeftCell="A32">
+      <selection activeCell="F17" sqref="F17"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{5F732A23-763A-43CE-844F-98E769D3D5C8}" topLeftCell="A34">
@@ -42160,1343 +44377,1343 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1" t="s">
         <v>355</v>
       </c>
-      <c r="B1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D1" t="s">
-        <v>358</v>
-      </c>
       <c r="E1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="D2" s="34">
+      <c r="A2" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="D3" s="37">
+      <c r="A3" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="36">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="107.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="62" t="s">
-        <v>195</v>
-      </c>
-      <c r="B4" s="63" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="63" t="s">
-        <v>197</v>
-      </c>
-      <c r="D4" s="64">
+      <c r="A4" s="61" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="63">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="91.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="C6" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="63">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="D5" s="37">
+      <c r="B7" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="107.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="62" t="s">
-        <v>200</v>
-      </c>
-      <c r="B6" s="63" t="s">
+    <row r="8" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="61" t="s">
         <v>201</v>
       </c>
-      <c r="C6" s="63" t="s">
-        <v>197</v>
-      </c>
-      <c r="D6" s="64">
-        <v>12</v>
+      <c r="B8" s="62" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="63">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="91.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="B7" s="36" t="s">
+    <row r="9" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="D7" s="37">
+      <c r="B9" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="91.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="62" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8" s="63" t="s">
+    <row r="10" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="C8" s="63" t="s">
-        <v>197</v>
-      </c>
-      <c r="D8" s="64">
+      <c r="B10" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="63">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="91.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="B9" s="36" t="s">
+    <row r="11" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="C9" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="D9" s="37">
+      <c r="B11" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="91.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="62" t="s">
-        <v>208</v>
-      </c>
-      <c r="B10" s="63" t="s">
+    <row r="12" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="C10" s="63" t="s">
-        <v>197</v>
-      </c>
-      <c r="D10" s="64">
+      <c r="B12" s="62" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" s="63">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="76.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="B11" s="36" t="s">
+    <row r="13" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="C11" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="D11" s="37">
+      <c r="B13" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="76.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="B12" s="63" t="s">
+    <row r="14" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="C12" s="63" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="64">
+      <c r="B14" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" s="63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="89.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="D13" s="37">
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="80" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="76" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="76.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="B14" s="63" t="s">
-        <v>217</v>
-      </c>
-      <c r="C14" s="63" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14" s="64">
-        <v>5</v>
-      </c>
+    <row r="17" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="81"/>
+      <c r="B17" s="62" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" s="77"/>
+      <c r="D17" s="79"/>
     </row>
-    <row r="15" spans="1:6" ht="76.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="D15" s="37">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="39">
+        <v>19</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" s="72">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="B16" s="39" t="s">
+    <row r="19" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="B19" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="C19" s="71"/>
+      <c r="D19" s="73"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="80" t="s">
         <v>223</v>
       </c>
-      <c r="D16" s="72">
+      <c r="B20" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20" s="76" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" s="78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="81"/>
+      <c r="B21" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="C21" s="77"/>
+      <c r="D21" s="79"/>
+    </row>
+    <row r="22" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="D22" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="69"/>
-      <c r="B17" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="73"/>
-    </row>
-    <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.3">
-      <c r="A18" s="40">
-        <v>19</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="C18" s="74" t="s">
-        <v>168</v>
-      </c>
-      <c r="D18" s="76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="65" t="s">
-        <v>224</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="77"/>
-    </row>
-    <row r="20" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="68" t="s">
-        <v>226</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="C20" s="70" t="s">
-        <v>229</v>
-      </c>
-      <c r="D20" s="72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="69"/>
-      <c r="B21" s="63" t="s">
-        <v>228</v>
-      </c>
-      <c r="C21" s="71"/>
-      <c r="D21" s="73"/>
-    </row>
-    <row r="22" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="35" t="s">
+    <row r="23" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B23" s="62" t="s">
         <v>231</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C23" s="62" t="s">
         <v>232</v>
       </c>
-      <c r="D22" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="62" t="s">
-        <v>233</v>
-      </c>
-      <c r="B23" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="C23" s="63" t="s">
-        <v>235</v>
-      </c>
-      <c r="D23" s="64">
+      <c r="D23" s="63">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="68" t="s">
+        <v>233</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24" s="70" t="s">
         <v>236</v>
       </c>
-      <c r="B24" s="41" t="s">
-        <v>237</v>
-      </c>
-      <c r="C24" s="74" t="s">
-        <v>239</v>
-      </c>
-      <c r="D24" s="76">
+      <c r="D24" s="72">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="79"/>
-      <c r="B25" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="C25" s="75"/>
-      <c r="D25" s="77"/>
+    <row r="25" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="69"/>
+      <c r="B25" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="C25" s="71"/>
+      <c r="D25" s="73"/>
     </row>
     <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="C26" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="D26" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="81"/>
+      <c r="B27" s="62" t="s">
+        <v>238</v>
+      </c>
+      <c r="C27" s="77"/>
+      <c r="D27" s="79"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="68" t="s">
         <v>240</v>
       </c>
-      <c r="B26" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="C26" s="70" t="s">
+      <c r="B28" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="C28" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="D28" s="72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="69"/>
+      <c r="B29" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="D26" s="72">
-        <v>1</v>
-      </c>
+      <c r="C29" s="71"/>
+      <c r="D29" s="73"/>
     </row>
-    <row r="27" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="69"/>
-      <c r="B27" s="63" t="s">
-        <v>241</v>
-      </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="73"/>
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="C30" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="D30" s="78">
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="78" t="s">
-        <v>243</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="C28" s="74" t="s">
+    <row r="31" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="81"/>
+      <c r="B31" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="D28" s="76">
-        <v>3</v>
-      </c>
+      <c r="C31" s="77"/>
+      <c r="D31" s="79"/>
     </row>
-    <row r="29" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="79"/>
-      <c r="B29" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="C29" s="75"/>
-      <c r="D29" s="77"/>
+    <row r="32" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="D32" s="36">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="68" t="s">
-        <v>247</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="C30" s="70" t="s">
-        <v>246</v>
-      </c>
-      <c r="D30" s="72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="69"/>
-      <c r="B31" s="63" t="s">
+    <row r="33" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="61" t="s">
         <v>249</v>
       </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="73"/>
-    </row>
-    <row r="32" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="35" t="s">
+      <c r="B33" s="62" t="s">
         <v>250</v>
       </c>
-      <c r="B32" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="D32" s="37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="62" t="s">
-        <v>252</v>
-      </c>
-      <c r="B33" s="63" t="s">
-        <v>253</v>
-      </c>
-      <c r="C33" s="63" t="s">
-        <v>223</v>
-      </c>
-      <c r="D33" s="64">
+      <c r="C33" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33" s="63">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="78" t="s">
+      <c r="A34" s="68" t="s">
+        <v>251</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="C34" s="70" t="s">
         <v>254</v>
       </c>
-      <c r="B34" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="C34" s="74" t="s">
-        <v>257</v>
-      </c>
-      <c r="D34" s="76">
+      <c r="D34" s="72">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="79"/>
-      <c r="B35" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="C35" s="75"/>
-      <c r="D35" s="77"/>
+    <row r="35" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="69"/>
+      <c r="B35" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="C35" s="71"/>
+      <c r="D35" s="73"/>
     </row>
     <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="68" t="s">
+      <c r="A36" s="80" t="s">
+        <v>255</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="C36" s="76" t="s">
+        <v>257</v>
+      </c>
+      <c r="D36" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="81"/>
+      <c r="B37" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="C37" s="77"/>
+      <c r="D37" s="79"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="B36" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="C36" s="70" t="s">
+      <c r="B38" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="C38" s="70" t="s">
+        <v>191</v>
+      </c>
+      <c r="D38" s="72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="69"/>
+      <c r="B39" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="D36" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="69"/>
-      <c r="B37" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="73"/>
-    </row>
-    <row r="38" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="78" t="s">
-        <v>261</v>
-      </c>
-      <c r="B38" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="C38" s="74" t="s">
-        <v>194</v>
-      </c>
-      <c r="D38" s="76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="79"/>
-      <c r="B39" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="C39" s="75"/>
-      <c r="D39" s="77"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="73"/>
     </row>
     <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="68" t="s">
+      <c r="A40" s="80" t="s">
+        <v>261</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="C40" s="76" t="s">
+        <v>257</v>
+      </c>
+      <c r="D40" s="78">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="81"/>
+      <c r="B41" s="62" t="s">
+        <v>262</v>
+      </c>
+      <c r="C41" s="77"/>
+      <c r="D41" s="79"/>
+    </row>
+    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="68" t="s">
+        <v>263</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="C42" s="70" t="s">
+        <v>191</v>
+      </c>
+      <c r="D42" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="69"/>
+      <c r="B43" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="B40" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="C40" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="D40" s="72">
-        <v>11</v>
-      </c>
+      <c r="C43" s="71"/>
+      <c r="D43" s="73"/>
     </row>
-    <row r="41" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="69"/>
-      <c r="B41" s="63" t="s">
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="80" t="s">
         <v>265</v>
       </c>
-      <c r="C41" s="71"/>
-      <c r="D41" s="73"/>
+      <c r="B44" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="C44" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="D44" s="78">
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="78" t="s">
+    <row r="45" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="81"/>
+      <c r="B45" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="B42" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="C42" s="74" t="s">
-        <v>194</v>
-      </c>
-      <c r="D42" s="76">
+      <c r="C45" s="77"/>
+      <c r="D45" s="79"/>
+    </row>
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="B46" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="C46" s="70" t="s">
+        <v>191</v>
+      </c>
+      <c r="D46" s="72">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="79"/>
-      <c r="B43" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="C43" s="75"/>
-      <c r="D43" s="77"/>
+    <row r="47" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="69"/>
+      <c r="B47" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="C47" s="71"/>
+      <c r="D47" s="73"/>
     </row>
-    <row r="44" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="68" t="s">
-        <v>268</v>
-      </c>
-      <c r="B44" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="C44" s="70" t="s">
-        <v>194</v>
-      </c>
-      <c r="D44" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="69"/>
-      <c r="B45" s="63" t="s">
+    <row r="48" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="61" t="s">
         <v>269</v>
       </c>
-      <c r="C45" s="71"/>
-      <c r="D45" s="73"/>
-    </row>
-    <row r="46" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="78" t="s">
+      <c r="B48" s="62" t="s">
         <v>270</v>
       </c>
-      <c r="B46" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="C46" s="74" t="s">
-        <v>194</v>
-      </c>
-      <c r="D46" s="76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="79"/>
-      <c r="B47" s="36" t="s">
+      <c r="C48" s="62" t="s">
         <v>271</v>
       </c>
-      <c r="C47" s="75"/>
-      <c r="D47" s="77"/>
-    </row>
-    <row r="48" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="62" t="s">
-        <v>272</v>
-      </c>
-      <c r="B48" s="63" t="s">
-        <v>273</v>
-      </c>
-      <c r="C48" s="63" t="s">
-        <v>274</v>
-      </c>
-      <c r="D48" s="64">
+      <c r="D48" s="63">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="78" t="s">
+      <c r="A49" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="B49" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="C49" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D49" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="69"/>
+      <c r="B50" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="C50" s="71"/>
+      <c r="D50" s="73"/>
+    </row>
+    <row r="51" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="B51" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="B49" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="74" t="s">
-        <v>260</v>
-      </c>
-      <c r="D49" s="76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="79"/>
-      <c r="B50" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="C50" s="75"/>
-      <c r="D50" s="77"/>
-    </row>
-    <row r="51" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="62" t="s">
-        <v>277</v>
-      </c>
-      <c r="B51" s="63" t="s">
-        <v>278</v>
-      </c>
-      <c r="C51" s="63" t="s">
-        <v>274</v>
-      </c>
-      <c r="D51" s="64">
+      <c r="C51" s="62" t="s">
+        <v>271</v>
+      </c>
+      <c r="D51" s="63">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="78" t="s">
-        <v>279</v>
-      </c>
-      <c r="B52" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="C52" s="74" t="s">
-        <v>260</v>
-      </c>
-      <c r="D52" s="76">
+      <c r="A52" s="68" t="s">
+        <v>276</v>
+      </c>
+      <c r="B52" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="C52" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D52" s="72">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="79"/>
-      <c r="B53" s="36" t="s">
-        <v>280</v>
-      </c>
-      <c r="C53" s="75"/>
-      <c r="D53" s="77"/>
+    <row r="53" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="69"/>
+      <c r="B53" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="C53" s="71"/>
+      <c r="D53" s="73"/>
     </row>
     <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="68" t="s">
+      <c r="A54" s="80" t="s">
+        <v>278</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="C54" s="76" t="s">
+        <v>257</v>
+      </c>
+      <c r="D54" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="81"/>
+      <c r="B55" s="62" t="s">
+        <v>279</v>
+      </c>
+      <c r="C55" s="77"/>
+      <c r="D55" s="79"/>
+    </row>
+    <row r="56" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="B56" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="B54" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="C54" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="D54" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="69"/>
-      <c r="B55" s="63" t="s">
-        <v>282</v>
-      </c>
-      <c r="C55" s="71"/>
-      <c r="D55" s="73"/>
-    </row>
-    <row r="56" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="35" t="s">
-        <v>283</v>
-      </c>
-      <c r="B56" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="C56" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="D56" s="37">
+      <c r="C56" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="D56" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="68" t="s">
+      <c r="A57" s="80" t="s">
+        <v>282</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" s="76" t="s">
+        <v>257</v>
+      </c>
+      <c r="D57" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="81"/>
+      <c r="B58" s="62" t="s">
+        <v>283</v>
+      </c>
+      <c r="C58" s="77"/>
+      <c r="D58" s="79"/>
+    </row>
+    <row r="59" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B59" s="35" t="s">
         <v>285</v>
       </c>
-      <c r="B57" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="C57" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="D57" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="69"/>
-      <c r="B58" s="63" t="s">
-        <v>286</v>
-      </c>
-      <c r="C58" s="71"/>
-      <c r="D58" s="73"/>
-    </row>
-    <row r="59" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="B59" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="C59" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="D59" s="37">
+      <c r="C59" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="D59" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="68" t="s">
+      <c r="A60" s="80" t="s">
+        <v>286</v>
+      </c>
+      <c r="B60" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="C60" s="76" t="s">
+        <v>257</v>
+      </c>
+      <c r="D60" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="81"/>
+      <c r="B61" s="62" t="s">
+        <v>287</v>
+      </c>
+      <c r="C61" s="77"/>
+      <c r="D61" s="79"/>
+    </row>
+    <row r="62" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="B62" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="B60" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="C60" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="D60" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="69"/>
-      <c r="B61" s="63" t="s">
+      <c r="C62" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="C61" s="71"/>
-      <c r="D61" s="73"/>
-    </row>
-    <row r="62" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="B62" s="36" t="s">
-        <v>292</v>
-      </c>
-      <c r="C62" s="36" t="s">
-        <v>293</v>
-      </c>
-      <c r="D62" s="37">
+      <c r="D62" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="68" t="s">
-        <v>294</v>
-      </c>
-      <c r="B63" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="C63" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="D63" s="72">
+      <c r="A63" s="80" t="s">
+        <v>291</v>
+      </c>
+      <c r="B63" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="C63" s="76" t="s">
+        <v>257</v>
+      </c>
+      <c r="D63" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="69"/>
-      <c r="B64" s="63" t="s">
-        <v>295</v>
-      </c>
-      <c r="C64" s="71"/>
-      <c r="D64" s="73"/>
+    <row r="64" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="81"/>
+      <c r="B64" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="C64" s="77"/>
+      <c r="D64" s="79"/>
     </row>
     <row r="65" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="78" t="s">
+      <c r="A65" s="68" t="s">
+        <v>293</v>
+      </c>
+      <c r="B65" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="C65" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D65" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="69"/>
+      <c r="B66" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="C66" s="71"/>
+      <c r="D66" s="73"/>
+    </row>
+    <row r="67" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="80" t="s">
+        <v>295</v>
+      </c>
+      <c r="B67" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="C67" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" s="78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="81"/>
+      <c r="B68" s="62" t="s">
         <v>296</v>
       </c>
-      <c r="B65" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="C65" s="74" t="s">
-        <v>260</v>
-      </c>
-      <c r="D65" s="76">
+      <c r="C68" s="77"/>
+      <c r="D68" s="79"/>
+    </row>
+    <row r="69" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="68" t="s">
+        <v>297</v>
+      </c>
+      <c r="B69" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="C69" s="70" t="s">
+        <v>191</v>
+      </c>
+      <c r="D69" s="72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="69"/>
+      <c r="B70" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="C70" s="71"/>
+      <c r="D70" s="73"/>
+    </row>
+    <row r="71" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="61" t="s">
+        <v>299</v>
+      </c>
+      <c r="B71" s="62" t="s">
+        <v>300</v>
+      </c>
+      <c r="C71" s="62" t="s">
+        <v>301</v>
+      </c>
+      <c r="D71" s="63">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="79"/>
-      <c r="B66" s="36" t="s">
-        <v>297</v>
-      </c>
-      <c r="C66" s="75"/>
-      <c r="D66" s="77"/>
+    <row r="72" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="B72" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="C72" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="D72" s="36">
+        <v>1</v>
+      </c>
     </row>
-    <row r="67" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="68" t="s">
-        <v>298</v>
-      </c>
-      <c r="B67" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="C67" s="70" t="s">
-        <v>194</v>
-      </c>
-      <c r="D67" s="72">
-        <v>6</v>
+    <row r="73" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="B73" s="62" t="s">
+        <v>306</v>
+      </c>
+      <c r="C73" s="62" t="s">
+        <v>304</v>
+      </c>
+      <c r="D73" s="63">
+        <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="69"/>
-      <c r="B68" s="63" t="s">
-        <v>299</v>
-      </c>
-      <c r="C68" s="71"/>
-      <c r="D68" s="73"/>
+    <row r="74" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="B74" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="C74" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="D74" s="36">
+        <v>1</v>
+      </c>
     </row>
-    <row r="69" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="78" t="s">
-        <v>300</v>
-      </c>
-      <c r="B69" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="C69" s="74" t="s">
-        <v>194</v>
-      </c>
-      <c r="D69" s="76">
-        <v>6</v>
+    <row r="75" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="61" t="s">
+        <v>309</v>
+      </c>
+      <c r="B75" s="62" t="s">
+        <v>310</v>
+      </c>
+      <c r="C75" s="62" t="s">
+        <v>311</v>
+      </c>
+      <c r="D75" s="63">
+        <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="79"/>
-      <c r="B70" s="36" t="s">
-        <v>301</v>
-      </c>
-      <c r="C70" s="75"/>
-      <c r="D70" s="77"/>
+    <row r="76" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="B76" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="D76" s="36">
+        <v>1</v>
+      </c>
     </row>
-    <row r="71" spans="1:4" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="62" t="s">
-        <v>302</v>
-      </c>
-      <c r="B71" s="63" t="s">
-        <v>303</v>
-      </c>
-      <c r="C71" s="63" t="s">
+    <row r="77" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="80" t="s">
+        <v>314</v>
+      </c>
+      <c r="B77" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="C77" s="76" t="s">
         <v>304</v>
       </c>
-      <c r="D71" s="64">
+      <c r="D77" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="35" t="s">
-        <v>305</v>
-      </c>
-      <c r="B72" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="C72" s="36" t="s">
-        <v>307</v>
-      </c>
-      <c r="D72" s="37">
+    <row r="78" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="81"/>
+      <c r="B78" s="62" t="s">
+        <v>316</v>
+      </c>
+      <c r="C78" s="77"/>
+      <c r="D78" s="79"/>
+    </row>
+    <row r="79" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="68" t="s">
+        <v>317</v>
+      </c>
+      <c r="B79" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="C79" s="70" t="s">
+        <v>304</v>
+      </c>
+      <c r="D79" s="72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="62" t="s">
-        <v>308</v>
-      </c>
-      <c r="B73" s="63" t="s">
-        <v>309</v>
-      </c>
-      <c r="C73" s="63" t="s">
-        <v>307</v>
-      </c>
-      <c r="D73" s="64">
+    <row r="80" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="69"/>
+      <c r="B80" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="C80" s="71"/>
+      <c r="D80" s="73"/>
+    </row>
+    <row r="81" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="80" t="s">
+        <v>320</v>
+      </c>
+      <c r="B81" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="C81" s="76" t="s">
+        <v>304</v>
+      </c>
+      <c r="D81" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="35" t="s">
-        <v>310</v>
-      </c>
-      <c r="B74" s="36" t="s">
-        <v>311</v>
-      </c>
-      <c r="C74" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="D74" s="37">
+    <row r="82" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="81"/>
+      <c r="B82" s="62" t="s">
+        <v>322</v>
+      </c>
+      <c r="C82" s="77"/>
+      <c r="D82" s="79"/>
+    </row>
+    <row r="83" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="B83" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C83" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="D83" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="62" t="s">
-        <v>312</v>
-      </c>
-      <c r="B75" s="63" t="s">
-        <v>313</v>
-      </c>
-      <c r="C75" s="63" t="s">
-        <v>314</v>
-      </c>
-      <c r="D75" s="64">
+    <row r="84" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="80" t="s">
+        <v>326</v>
+      </c>
+      <c r="B84" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="C84" s="76" t="s">
+        <v>329</v>
+      </c>
+      <c r="D84" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="B76" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="C76" s="36" t="s">
-        <v>307</v>
-      </c>
-      <c r="D76" s="37">
+    <row r="85" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="81"/>
+      <c r="B85" s="62" t="s">
+        <v>328</v>
+      </c>
+      <c r="C85" s="77"/>
+      <c r="D85" s="79"/>
+    </row>
+    <row r="86" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="34">
         <v>1</v>
       </c>
+      <c r="B86" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C86" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D86" s="36">
+        <v>1</v>
+      </c>
     </row>
-    <row r="77" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A77" s="68" t="s">
-        <v>317</v>
-      </c>
-      <c r="B77" s="39" t="s">
-        <v>318</v>
-      </c>
-      <c r="C77" s="70" t="s">
-        <v>307</v>
-      </c>
-      <c r="D77" s="72">
+    <row r="87" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="44">
+        <v>13</v>
+      </c>
+      <c r="B87" s="65" t="s">
+        <v>330</v>
+      </c>
+      <c r="C87" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="D87" s="63" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A88" s="39">
+        <v>14</v>
+      </c>
+      <c r="B88" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="C88" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="D88" s="72">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="69"/>
-      <c r="B78" s="63" t="s">
-        <v>319</v>
-      </c>
-      <c r="C78" s="71"/>
-      <c r="D78" s="73"/>
-    </row>
-    <row r="79" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A79" s="78" t="s">
-        <v>320</v>
-      </c>
-      <c r="B79" s="41" t="s">
-        <v>321</v>
-      </c>
-      <c r="C79" s="74" t="s">
-        <v>307</v>
-      </c>
-      <c r="D79" s="76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="79"/>
-      <c r="B80" s="36" t="s">
-        <v>322</v>
-      </c>
-      <c r="C80" s="75"/>
-      <c r="D80" s="77"/>
-    </row>
-    <row r="81" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A81" s="68" t="s">
-        <v>323</v>
-      </c>
-      <c r="B81" s="39" t="s">
-        <v>324</v>
-      </c>
-      <c r="C81" s="70" t="s">
-        <v>307</v>
-      </c>
-      <c r="D81" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="69"/>
-      <c r="B82" s="63" t="s">
-        <v>325</v>
-      </c>
-      <c r="C82" s="71"/>
-      <c r="D82" s="73"/>
-    </row>
-    <row r="83" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="35" t="s">
-        <v>326</v>
-      </c>
-      <c r="B83" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="C83" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="D83" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A84" s="68" t="s">
-        <v>329</v>
-      </c>
-      <c r="B84" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="C84" s="70" t="s">
+    <row r="89" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="64" t="s">
         <v>332</v>
       </c>
-      <c r="D84" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="69"/>
-      <c r="B85" s="63" t="s">
-        <v>331</v>
-      </c>
-      <c r="C85" s="71"/>
-      <c r="D85" s="73"/>
-    </row>
-    <row r="86" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="35">
-        <v>1</v>
-      </c>
-      <c r="B86" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="C86" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="D86" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="45">
-        <v>13</v>
-      </c>
-      <c r="B87" s="66" t="s">
+      <c r="B89" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="C87" s="63" t="s">
-        <v>142</v>
-      </c>
-      <c r="D87" s="64" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="78" x14ac:dyDescent="0.3">
-      <c r="A88" s="40">
-        <v>14</v>
-      </c>
-      <c r="B88" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="C88" s="74" t="s">
-        <v>158</v>
-      </c>
-      <c r="D88" s="76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="65" t="s">
-        <v>335</v>
-      </c>
-      <c r="B89" s="36" t="s">
-        <v>336</v>
-      </c>
-      <c r="C89" s="75"/>
-      <c r="D89" s="77"/>
+      <c r="C89" s="71"/>
+      <c r="D89" s="73"/>
     </row>
     <row r="90" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="52">
+      <c r="A90" s="51">
         <v>15</v>
       </c>
-      <c r="B90" s="70" t="s">
-        <v>338</v>
-      </c>
-      <c r="C90" s="70" t="s">
-        <v>159</v>
-      </c>
-      <c r="D90" s="72">
+      <c r="B90" s="76" t="s">
+        <v>335</v>
+      </c>
+      <c r="C90" s="76" t="s">
+        <v>156</v>
+      </c>
+      <c r="D90" s="78">
         <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="67" t="s">
+      <c r="A91" s="66" t="s">
+        <v>334</v>
+      </c>
+      <c r="B91" s="77"/>
+      <c r="C91" s="77"/>
+      <c r="D91" s="79"/>
+    </row>
+    <row r="92" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="39">
+        <v>16</v>
+      </c>
+      <c r="B92" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C92" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="D92" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="B93" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="B91" s="71"/>
-      <c r="C91" s="71"/>
-      <c r="D91" s="73"/>
-    </row>
-    <row r="92" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A92" s="40">
-        <v>16</v>
-      </c>
-      <c r="B92" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="C92" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="D92" s="76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="65" t="s">
-        <v>339</v>
-      </c>
-      <c r="B93" s="36" t="s">
-        <v>340</v>
-      </c>
-      <c r="C93" s="75"/>
-      <c r="D93" s="77"/>
+      <c r="C93" s="71"/>
+      <c r="D93" s="73"/>
     </row>
     <row r="94" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="52">
+      <c r="A94" s="51">
         <v>17</v>
       </c>
-      <c r="B94" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="C94" s="70" t="s">
-        <v>163</v>
-      </c>
-      <c r="D94" s="72">
+      <c r="B94" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C94" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D94" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="67" t="s">
-        <v>341</v>
-      </c>
-      <c r="B95" s="63" t="s">
-        <v>342</v>
-      </c>
-      <c r="C95" s="71"/>
-      <c r="D95" s="73"/>
+    <row r="95" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="66" t="s">
+        <v>338</v>
+      </c>
+      <c r="B95" s="62" t="s">
+        <v>339</v>
+      </c>
+      <c r="C95" s="77"/>
+      <c r="D95" s="79"/>
     </row>
     <row r="96" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="40">
+      <c r="A96" s="39">
         <v>18</v>
       </c>
-      <c r="B96" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="C96" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="D96" s="76">
+      <c r="B96" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C96" s="70" t="s">
+        <v>160</v>
+      </c>
+      <c r="D96" s="72">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="65" t="s">
-        <v>343</v>
-      </c>
-      <c r="B97" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="C97" s="75"/>
-      <c r="D97" s="77"/>
+    <row r="97" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="B97" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="C97" s="71"/>
+      <c r="D97" s="73"/>
     </row>
     <row r="98" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="80">
+      <c r="A98" s="74">
         <v>20</v>
       </c>
-      <c r="B98" s="38" t="s">
+      <c r="B98" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C98" s="76" t="s">
+        <v>141</v>
+      </c>
+      <c r="D98" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="75"/>
+      <c r="B99" s="65" t="s">
+        <v>342</v>
+      </c>
+      <c r="C99" s="77"/>
+      <c r="D99" s="79"/>
+    </row>
+    <row r="100" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="68">
+        <v>21</v>
+      </c>
+      <c r="B100" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C100" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="C98" s="70" t="s">
-        <v>144</v>
-      </c>
-      <c r="D98" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="81"/>
-      <c r="B99" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="C99" s="71"/>
-      <c r="D99" s="73"/>
-    </row>
-    <row r="100" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="78">
-        <v>21</v>
-      </c>
-      <c r="B100" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="C100" s="74" t="s">
-        <v>146</v>
-      </c>
-      <c r="D100" s="76">
+      <c r="D100" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="79"/>
-      <c r="B101" s="36" t="s">
-        <v>346</v>
-      </c>
-      <c r="C101" s="75"/>
-      <c r="D101" s="77"/>
+      <c r="A101" s="69"/>
+      <c r="B101" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="C101" s="71"/>
+      <c r="D101" s="73"/>
     </row>
-    <row r="102" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="80">
+    <row r="102" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="74">
         <v>22</v>
       </c>
-      <c r="B102" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="C102" s="70" t="s">
-        <v>146</v>
-      </c>
-      <c r="D102" s="72">
+      <c r="B102" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C102" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="D102" s="78">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="81"/>
-      <c r="B103" s="66" t="s">
-        <v>347</v>
-      </c>
-      <c r="C103" s="71"/>
-      <c r="D103" s="73"/>
+      <c r="A103" s="75"/>
+      <c r="B103" s="65" t="s">
+        <v>344</v>
+      </c>
+      <c r="C103" s="77"/>
+      <c r="D103" s="79"/>
     </row>
-    <row r="104" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="78">
+    <row r="104" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="68">
         <v>23</v>
       </c>
-      <c r="B104" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="C104" s="74" t="s">
-        <v>146</v>
-      </c>
-      <c r="D104" s="76">
+      <c r="B104" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C104" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="D104" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="79"/>
-      <c r="B105" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="C105" s="75"/>
-      <c r="D105" s="77"/>
+      <c r="A105" s="69"/>
+      <c r="B105" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="C105" s="71"/>
+      <c r="D105" s="73"/>
     </row>
-    <row r="106" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A106" s="80">
+    <row r="106" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="74">
         <v>24</v>
       </c>
-      <c r="B106" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="C106" s="70" t="s">
+      <c r="B106" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="D106" s="72">
+      <c r="C106" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="D106" s="78">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="81"/>
-      <c r="B107" s="66" t="s">
-        <v>349</v>
-      </c>
-      <c r="C107" s="71"/>
-      <c r="D107" s="73"/>
+      <c r="A107" s="75"/>
+      <c r="B107" s="65" t="s">
+        <v>346</v>
+      </c>
+      <c r="C107" s="77"/>
+      <c r="D107" s="79"/>
     </row>
-    <row r="108" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="78">
+    <row r="108" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="68">
         <v>25</v>
       </c>
-      <c r="B108" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="C108" s="74" t="s">
-        <v>146</v>
-      </c>
-      <c r="D108" s="76">
+      <c r="B108" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C108" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="D108" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="79"/>
-      <c r="B109" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="C109" s="75"/>
-      <c r="D109" s="77"/>
+      <c r="A109" s="69"/>
+      <c r="B109" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="C109" s="71"/>
+      <c r="D109" s="73"/>
     </row>
-    <row r="110" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="80">
+    <row r="110" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A110" s="74">
         <v>26</v>
       </c>
-      <c r="B110" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="C110" s="70" t="s">
-        <v>146</v>
-      </c>
-      <c r="D110" s="72">
+      <c r="B110" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C110" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="D110" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="81"/>
-      <c r="B111" s="66" t="s">
-        <v>351</v>
-      </c>
-      <c r="C111" s="71"/>
-      <c r="D111" s="73"/>
+    <row r="111" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="75"/>
+      <c r="B111" s="65" t="s">
+        <v>348</v>
+      </c>
+      <c r="C111" s="77"/>
+      <c r="D111" s="79"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="82" t="s">
-        <v>352</v>
+      <c r="A112" s="67" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -43507,104 +45724,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="112">
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="D24:D25"/>
@@ -43619,6 +45738,104 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
